--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="364">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
   </si>
   <si>
     <t>张霸双手摊开撑在地板上，抬着头，叹了口气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牢房1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1940,6 +1936,14 @@
   </si>
   <si>
     <t>赵译【你打算怎么做，你能上网，不能代表你能打电话】赵译【业余姑娘，人家用的是国外ip代理。我们又不笨】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢房1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2747,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A200" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2765,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2820,7 +2824,7 @@
     <row r="4" spans="1:8" ht="33" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -2836,7 +2840,7 @@
     <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -3132,7 +3136,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3160,7 +3164,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3185,7 +3189,7 @@
     </row>
     <row r="27" spans="1:8" ht="48" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3198,11 +3202,11 @@
     <row r="28" spans="1:8" ht="61" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3212,11 +3216,11 @@
     <row r="29" spans="1:8" ht="61" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3226,11 +3230,11 @@
     <row r="30" spans="1:8" ht="53" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3240,17 +3244,17 @@
     <row r="31" spans="1:8" ht="52" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3258,13 +3262,13 @@
     <row r="32" spans="1:8" ht="72" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3274,17 +3278,17 @@
     <row r="33" spans="1:8" ht="42" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3292,15 +3296,15 @@
     <row r="34" spans="1:8" ht="53" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3308,11 +3312,11 @@
     <row r="35" spans="1:8" ht="39" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3322,11 +3326,11 @@
     <row r="36" spans="1:8" ht="37" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3336,11 +3340,11 @@
     <row r="37" spans="1:8" ht="55" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3350,11 +3354,11 @@
     <row r="38" spans="1:8" ht="51" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3364,11 +3368,11 @@
     <row r="39" spans="1:8" ht="43" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3378,15 +3382,15 @@
     <row r="40" spans="1:8" ht="65" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3394,11 +3398,11 @@
     <row r="41" spans="1:8" ht="40" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3408,15 +3412,15 @@
     <row r="42" spans="1:8" ht="83" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3424,15 +3428,15 @@
     <row r="43" spans="1:8" ht="56" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3440,11 +3444,11 @@
     <row r="44" spans="1:8" ht="51" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3454,13 +3458,13 @@
     <row r="45" spans="1:8" ht="56" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3470,13 +3474,13 @@
     <row r="46" spans="1:8" ht="66" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -3486,13 +3490,13 @@
     <row r="47" spans="1:8" ht="58" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="4"/>
@@ -3502,15 +3506,15 @@
     <row r="48" spans="1:8" ht="48" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3518,15 +3522,15 @@
     <row r="49" spans="1:8" ht="36" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3534,13 +3538,13 @@
     <row r="50" spans="1:8" ht="48" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -3550,17 +3554,17 @@
     <row r="51" spans="1:8" ht="59" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3568,15 +3572,15 @@
     <row r="52" spans="1:8" ht="44" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3584,15 +3588,15 @@
     <row r="53" spans="1:8" ht="81" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3600,11 +3604,11 @@
     <row r="54" spans="1:8" ht="58" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -3614,15 +3618,15 @@
     <row r="55" spans="1:8" ht="74" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -3630,17 +3634,17 @@
     <row r="56" spans="1:8" ht="40" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3648,15 +3652,15 @@
     <row r="57" spans="1:8" ht="50" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3664,24 +3668,24 @@
     <row r="58" spans="1:8" ht="83" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="46" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3694,15 +3698,15 @@
     <row r="60" spans="1:8" ht="49" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3710,11 +3714,11 @@
     <row r="61" spans="1:8" ht="40" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3724,11 +3728,11 @@
     <row r="62" spans="1:8" ht="37" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3738,11 +3742,11 @@
     <row r="63" spans="1:8" ht="46" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3752,13 +3756,13 @@
     <row r="64" spans="1:8" ht="48" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3766,13 +3770,13 @@
     <row r="65" spans="1:8" ht="25" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3780,15 +3784,15 @@
     <row r="66" spans="1:8" ht="37" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3796,13 +3800,13 @@
     <row r="67" spans="1:8" ht="49" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3810,13 +3814,13 @@
     <row r="68" spans="1:8" ht="63" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="14"/>
       <c r="F68" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -3824,15 +3828,15 @@
     <row r="69" spans="1:8" ht="67" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
@@ -3840,17 +3844,17 @@
     <row r="70" spans="1:8" ht="57" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -3858,15 +3862,15 @@
     <row r="71" spans="1:8" ht="57" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -3874,11 +3878,11 @@
     <row r="72" spans="1:8" ht="57" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -3888,11 +3892,11 @@
     <row r="73" spans="1:8" ht="57" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
@@ -3901,7 +3905,7 @@
     </row>
     <row r="74" spans="1:8" ht="50" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -3914,11 +3918,11 @@
     <row r="75" spans="1:8" ht="32" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -3928,11 +3932,11 @@
     <row r="76" spans="1:8" ht="23" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3942,11 +3946,11 @@
     <row r="77" spans="1:8" ht="27" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3956,15 +3960,15 @@
     <row r="78" spans="1:8" ht="37" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -3972,15 +3976,15 @@
     <row r="79" spans="1:8" ht="31" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -3988,15 +3992,15 @@
     <row r="80" spans="1:8" ht="34" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4004,15 +4008,15 @@
     <row r="81" spans="1:8" ht="34" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -4020,11 +4024,11 @@
     <row r="82" spans="1:8" ht="44" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4034,11 +4038,11 @@
     <row r="83" spans="1:8" ht="32" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4048,11 +4052,11 @@
     <row r="84" spans="1:8" ht="36" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4062,11 +4066,11 @@
     <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -4076,11 +4080,11 @@
     <row r="86" spans="1:8" ht="38" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4090,17 +4094,17 @@
     <row r="87" spans="1:8" ht="57" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -4108,15 +4112,15 @@
     <row r="88" spans="1:8" ht="44" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -4124,15 +4128,15 @@
     <row r="89" spans="1:8" ht="86" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -4140,15 +4144,15 @@
     <row r="90" spans="1:8" ht="34" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -4156,15 +4160,15 @@
     <row r="91" spans="1:8" ht="48" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -4172,15 +4176,15 @@
     <row r="92" spans="1:8" ht="44" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -4188,15 +4192,15 @@
     <row r="93" spans="1:8" ht="37" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4204,13 +4208,13 @@
     <row r="94" spans="1:8" ht="38" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4218,11 +4222,11 @@
     <row r="95" spans="1:8" ht="44" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
@@ -4232,15 +4236,15 @@
     <row r="96" spans="1:8" ht="28" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -4248,15 +4252,15 @@
     <row r="97" spans="1:8" ht="30" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -4264,11 +4268,11 @@
     <row r="98" spans="1:8" ht="25" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4278,15 +4282,15 @@
     <row r="99" spans="1:8" ht="32" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4294,15 +4298,15 @@
     <row r="100" spans="1:8" ht="31" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -4310,13 +4314,13 @@
     <row r="101" spans="1:8" ht="31" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4326,17 +4330,17 @@
     <row r="102" spans="1:8" ht="105" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -4344,29 +4348,29 @@
     <row r="103" spans="1:8" ht="28" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" ht="44" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4376,11 +4380,11 @@
     <row r="105" spans="1:8" ht="26">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4390,11 +4394,11 @@
     <row r="106" spans="1:8" ht="85" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4404,13 +4408,13 @@
     <row r="107" spans="1:8" ht="44" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4420,15 +4424,15 @@
     <row r="108" spans="1:8" ht="41" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -4436,11 +4440,11 @@
     <row r="109" spans="1:8" ht="42" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4450,11 +4454,11 @@
     <row r="110" spans="1:8" ht="27">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -4463,7 +4467,7 @@
     </row>
     <row r="111" spans="1:8" ht="44" customHeight="1">
       <c r="A111" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -4480,7 +4484,7 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
@@ -4490,11 +4494,11 @@
     <row r="113" spans="1:8" ht="40" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
@@ -4504,11 +4508,11 @@
     <row r="114" spans="1:8">
       <c r="A114" s="8"/>
       <c r="B114" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -4518,11 +4522,11 @@
     <row r="115" spans="1:8">
       <c r="A115" s="8"/>
       <c r="B115" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="4"/>
@@ -4532,11 +4536,11 @@
     <row r="116" spans="1:8">
       <c r="A116" s="8"/>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
@@ -4546,11 +4550,11 @@
     <row r="117" spans="1:8">
       <c r="A117" s="8"/>
       <c r="B117" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
@@ -4560,11 +4564,11 @@
     <row r="118" spans="1:8" ht="24" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4574,13 +4578,13 @@
     <row r="119" spans="1:8" ht="34" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="4"/>
@@ -4590,11 +4594,11 @@
     <row r="120" spans="1:8" ht="40" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
@@ -4604,11 +4608,11 @@
     <row r="121" spans="1:8">
       <c r="A121" s="8"/>
       <c r="B121" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
@@ -4618,15 +4622,15 @@
     <row r="122" spans="1:8" ht="26">
       <c r="A122" s="8"/>
       <c r="B122" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -4634,29 +4638,29 @@
     <row r="123" spans="1:8" ht="52">
       <c r="A123" s="8"/>
       <c r="B123" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" ht="26">
       <c r="A124" s="8"/>
       <c r="B124" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
@@ -4666,13 +4670,13 @@
     <row r="125" spans="1:8">
       <c r="A125" s="8"/>
       <c r="B125" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
@@ -4682,11 +4686,11 @@
     <row r="126" spans="1:8" ht="36" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4696,11 +4700,11 @@
     <row r="127" spans="1:8">
       <c r="A127" s="8"/>
       <c r="B127" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="4"/>
@@ -4710,11 +4714,11 @@
     <row r="128" spans="1:8">
       <c r="A128" s="8"/>
       <c r="B128" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
@@ -4724,17 +4728,17 @@
     <row r="129" spans="1:8" ht="26">
       <c r="A129" s="8"/>
       <c r="B129" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -4742,31 +4746,31 @@
     <row r="130" spans="1:8">
       <c r="A130" s="8"/>
       <c r="B130" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" ht="26">
       <c r="A131" s="8"/>
       <c r="B131" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -4774,11 +4778,11 @@
     <row r="132" spans="1:8">
       <c r="A132" s="8"/>
       <c r="B132" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
@@ -4788,11 +4792,11 @@
     <row r="133" spans="1:8">
       <c r="A133" s="8"/>
       <c r="B133" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
@@ -4802,11 +4806,11 @@
     <row r="134" spans="1:8">
       <c r="A134" s="8"/>
       <c r="B134" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -4816,11 +4820,11 @@
     <row r="135" spans="1:8">
       <c r="A135" s="8"/>
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="4"/>
@@ -4830,11 +4834,11 @@
     <row r="136" spans="1:8">
       <c r="A136" s="8"/>
       <c r="B136" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
@@ -4844,15 +4848,15 @@
     <row r="137" spans="1:8">
       <c r="A137" s="8"/>
       <c r="B137" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -4860,11 +4864,11 @@
     <row r="138" spans="1:8">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4874,11 +4878,11 @@
     <row r="139" spans="1:8">
       <c r="A139" s="8"/>
       <c r="B139" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="4"/>
@@ -4888,11 +4892,11 @@
     <row r="140" spans="1:8">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="4"/>
@@ -4902,13 +4906,13 @@
     <row r="141" spans="1:8" ht="104">
       <c r="A141" s="8"/>
       <c r="B141" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
       <c r="F141" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -4916,15 +4920,15 @@
     <row r="142" spans="1:8" ht="39">
       <c r="A142" s="8"/>
       <c r="B142" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -4932,15 +4936,15 @@
     <row r="143" spans="1:8">
       <c r="A143" s="8"/>
       <c r="B143" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -4948,11 +4952,11 @@
     <row r="144" spans="1:8">
       <c r="A144" s="8"/>
       <c r="B144" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="4"/>
@@ -4961,7 +4965,7 @@
     </row>
     <row r="145" spans="1:8" ht="50" customHeight="1">
       <c r="A145" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -4978,11 +4982,11 @@
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -4990,11 +4994,11 @@
     <row r="147" spans="1:8">
       <c r="A147" s="8"/>
       <c r="B147" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -5004,15 +5008,15 @@
     <row r="148" spans="1:8" ht="26">
       <c r="A148" s="8"/>
       <c r="B148" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -5020,17 +5024,17 @@
     <row r="149" spans="1:8" ht="39">
       <c r="A149" s="8"/>
       <c r="B149" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -5038,15 +5042,15 @@
     <row r="150" spans="1:8" ht="26">
       <c r="A150" s="8"/>
       <c r="B150" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="5"/>
       <c r="F150" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -5054,11 +5058,11 @@
     <row r="151" spans="1:8" ht="38" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="4"/>
@@ -5068,13 +5072,13 @@
     <row r="152" spans="1:8" ht="38" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="4"/>
@@ -5104,7 +5108,7 @@
       <c r="D154" s="4"/>
       <c r="E154" s="5"/>
       <c r="F154" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -5118,7 +5122,7 @@
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -5126,13 +5130,13 @@
     <row r="156" spans="1:8">
       <c r="A156" s="8"/>
       <c r="B156" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -5140,15 +5144,15 @@
     <row r="157" spans="1:8" ht="35" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -5156,15 +5160,15 @@
     <row r="158" spans="1:8" ht="35" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -5172,15 +5176,15 @@
     <row r="159" spans="1:8" ht="35" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -5188,15 +5192,15 @@
     <row r="160" spans="1:8" ht="35" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -5204,15 +5208,15 @@
     <row r="161" spans="1:8" ht="26" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -5224,11 +5228,11 @@
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -5240,7 +5244,7 @@
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="4"/>
@@ -5254,7 +5258,7 @@
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -5268,7 +5272,7 @@
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="4"/>
@@ -5282,7 +5286,7 @@
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="4"/>
@@ -5296,7 +5300,7 @@
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="4"/>
@@ -5305,7 +5309,7 @@
     </row>
     <row r="168" spans="1:8" ht="34" customHeight="1">
       <c r="A168" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -5318,15 +5322,15 @@
     <row r="169" spans="1:8">
       <c r="A169" s="8"/>
       <c r="B169" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -5338,7 +5342,7 @@
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="4"/>
@@ -5348,15 +5352,15 @@
     <row r="171" spans="1:8" ht="65">
       <c r="A171" s="8"/>
       <c r="B171" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -5364,15 +5368,15 @@
     <row r="172" spans="1:8" ht="52">
       <c r="A172" s="8"/>
       <c r="B172" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -5384,11 +5388,11 @@
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -5396,11 +5400,11 @@
     <row r="174" spans="1:8" ht="26">
       <c r="A174" s="8"/>
       <c r="B174" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="4"/>
@@ -5410,11 +5414,11 @@
     <row r="175" spans="1:8">
       <c r="A175" s="8"/>
       <c r="B175" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="4"/>
@@ -5424,29 +5428,29 @@
     <row r="176" spans="1:8">
       <c r="A176" s="8"/>
       <c r="B176" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="8"/>
       <c r="B177" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="4"/>
@@ -5456,11 +5460,11 @@
     <row r="178" spans="1:8">
       <c r="A178" s="8"/>
       <c r="B178" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="4"/>
@@ -5470,13 +5474,13 @@
     <row r="179" spans="1:8">
       <c r="A179" s="8"/>
       <c r="B179" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -5486,13 +5490,13 @@
     <row r="180" spans="1:8" ht="26">
       <c r="A180" s="8"/>
       <c r="B180" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="4"/>
@@ -5506,7 +5510,7 @@
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="4"/>
@@ -5520,7 +5524,7 @@
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="4"/>
@@ -5534,7 +5538,7 @@
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="4"/>
@@ -5543,7 +5547,7 @@
     </row>
     <row r="184" spans="1:8" ht="32" customHeight="1">
       <c r="A184" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -5559,7 +5563,7 @@
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="4"/>
@@ -5573,7 +5577,7 @@
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="4"/>
@@ -5587,7 +5591,7 @@
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="4"/>
@@ -5601,7 +5605,7 @@
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -5615,7 +5619,7 @@
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -5629,12 +5633,12 @@
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H190" s="8"/>
     </row>
@@ -5645,7 +5649,7 @@
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
@@ -5658,10 +5662,10 @@
         <v>23</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -5675,14 +5679,14 @@
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H193" s="4"/>
     </row>
@@ -5693,7 +5697,7 @@
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="4"/>
@@ -5707,7 +5711,7 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="4"/>
@@ -5721,7 +5725,7 @@
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -5735,7 +5739,7 @@
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="4"/>
@@ -5749,7 +5753,7 @@
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="4"/>
@@ -5763,7 +5767,7 @@
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -5777,7 +5781,7 @@
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -5791,7 +5795,7 @@
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="4"/>
@@ -5805,11 +5809,11 @@
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -5821,11 +5825,11 @@
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
@@ -5839,7 +5843,7 @@
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
@@ -5851,11 +5855,11 @@
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -5867,11 +5871,11 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -5883,7 +5887,7 @@
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="900" windowWidth="27200" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="442">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,18 +1118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手翻箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电脑屏幕（设计logo）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韦波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,10 +1162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张霸电脑屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸【很慢，没有其他主机服务器了吗？】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1189,10 +1177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘悦在翻阅着房间角落的一个储物箱，掏出一个主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>众人围在储物箱旁</t>
   </si>
   <si>
@@ -1200,9 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张霸掀开日记本第一页</t>
-  </si>
-  <si>
     <t>日记本写着的名字是“黄玲”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,10 +1196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门被推开的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸【又怎么啦】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,10 +1219,6 @@
     <t>头目【你们在干嘛，赶紧干活，就剩三天了，还要不要活了】</t>
   </si>
   <si>
-    <t>头目走进张霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,10 +1310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵译【这位小姐，麻烦让让，我们的活儿要紧】刘悦【世界杯决赛呀】韦波【R小姐！我这结束工作了，你过来这看吧】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前后景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1358,26 +1327,10 @@
     <t>刘悦【本来我今晚就在巴西里约热内卢报道世界杯了决赛了，没想到现在会在这种鬼地方】</t>
   </si>
   <si>
-    <t>刘悦【前几年很火的网络游戏，现在已经被黄氏收购了嘛】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵译【我是开发的项目经理】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张霸【你们有谁知道《狂战天下》这个游戏】韦波【噢，《狂战天下》的项目经理是你？但你代码能力不怎么强啊】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译【《狂战天下》怎么啦？】张霸【你玩过？】张霸【那，那个死掉的女程序员……】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译【我是游戏开发方向的】赵译【她是人物角色设计，我们当时合作过】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸【搜索数据够了吗】赵译【应该够了吧】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,23 +1367,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸躺在一个角落里，翻看着黄玲的日记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸翻看日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>近景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘悦兴奋起身，把键盘扔给赵译，赵译接过来，迅速开始了敲代码工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸躺在一个角落里，翻看着黄玲的日记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸翻看日记</t>
+    <t>韦波【你说他们会不会放了我们？】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1438,126 +1391,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韦波【你说他们会不会放了我们？】</t>
+    <t>全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸来到赵译身旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸的手在键盘边停住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译一副莫名其妙的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波趟地上睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦头低下来看着屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢房7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸失落的表情，眼睛慢慢闭上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸主观视觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸和韦波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然门被打开</t>
+  </si>
+  <si>
+    <t>前后景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸眼睛先闭上，然后张开，嘴里念念有词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【192，168,3，2】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>近景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1赵译沉默地低下头2.说台词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.刘悦沉默地低下头2.说台词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1韦波显得尴尬2.呆住惊动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.全场沉默2.张霸急忙跑到赵译身旁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1张霸看了他们一下，若有所思2.沉默3.惊动了一下4.翻身起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸来到赵译身旁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸的手在键盘边停住</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译一副莫名其妙的表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦波趟地上睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘悦头低下来看着屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牢房7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸失落的表情，眼睛慢慢闭上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦波躺在地上，突然醒过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【不正确】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【韦波？韦波！ 】韦波醒过来【什么，什么？】韦波【a，c，h，e，r，acher。代表着这里的我们】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸主观视觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸和韦波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【韦波？韦波！ 】张霸【域名？你工程域名是什么】韦波【这不是我的搜索界面嘛，原来他们已经部署上去了啊】韦波【哎，我看看】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然门被打开</t>
-  </si>
-  <si>
-    <t>前后景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸眼睛先闭上，然后张开，嘴里念念有词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【192，168,3，2】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸拿起键盘，输入“192.168.3.2”，然后停住，再次输入“acher”，再次输入“weiba”。张霸再次输入些什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕上输入“192.168.3.2”，又接着输入“acher”，显示404页面。屏幕正确显示出网页。搜索栏中打入了“狂战天下”“刘悦”。出现了一条新闻结果：18岁少女沉迷网游跳楼自杀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸看着屏幕。失望的捂着脸。一副没有什么希望的表情。韦波凑过来一看。韦波把键盘拿了过来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1888,6 +1785,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -1909,6 +1807,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -2168,12 +2067,242 @@
     <t>三人安静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸，韦波，赵译都在电脑旁。刘悦在翻箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上帝视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波电脑屏幕（设计logo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸电脑屏幕（速率图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦在翻阅着房间角落的一个储物箱，掏出一个主机，然后面对着三人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸掀开日记本第一页，其他人仍然在翻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头目走到张霸身旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度：张霸正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度：头目正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门被推开的声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U盘从电脑拔出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦兴奋起身，把键盘扔给赵译，赵译接过来，迅速开始了敲代码工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【这位小姐，麻烦让让，我们的活儿要紧】刘悦【世界杯决赛呀】韦波【R小姐！我这结束工作了，你过来这看吧】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦在电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译说台词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【我是游戏开发方向的】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【她是人物角色设计，我们当时合作过】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译沉默地低下头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦沉默地低下头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦说台词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦【前几年很火的网络游戏，现在已经被黄氏收购了嘛】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波显得尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波呆住惊动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波【噢，《狂战天下》的项目经理是你？但你代码能力不怎么强啊】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【你们有谁知道《狂战天下》这个游戏】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【你们有谁知道《狂战天下》这个游戏】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸看了他们一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸若有所思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸惊动了一下，翻身起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【你玩过？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【那，那个死掉的女程序员……】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【《狂战天下》怎么啦？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与赵译前后景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与韦波前后景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全场沉默</t>
+  </si>
+  <si>
+    <t>张霸急忙跑到赵译身旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸拿起键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑屏幕下方的wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与韦波前后景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【韦波？韦波！ 】韦波【这不是我的搜索界面嘛，原来他们已经部署上去了啊】韦波【哎，我看看】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【域名？你工程域名是什么】</t>
+  </si>
+  <si>
+    <t>韦波躺在地上，突然醒过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波【a，c，h，e，r，acher。代表着这里的我们】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【韦波？韦波！ 】韦波醒过来【什么，什么？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与张霸前后景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“192.168.3.2”，然后停住，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次输入“acher”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次输入“weiba”。张霸再次输入些什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【不正确】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕上输入“192.168.3.2”，又接着输入“acher”，显示404页面。屏幕正确显示出网页。搜索栏中打入了“狂战天下”“刘悦”。出现了一条新闻结果：18岁少女沉迷网游跳楼自杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2235,10 +2364,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2381,7 +2512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2497,8 +2628,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2539,6 +2688,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,30 +2727,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="133">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2638,63 +2804,82 @@
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3022,36 +3207,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A131" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:H135"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.95" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+    <row r="1" spans="1:8" ht="31" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -3079,13 +3264,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1">
+    <row r="3" spans="1:8" ht="50" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -3114,20 +3299,20 @@
     <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="45.95" customHeight="1">
+    <row r="6" spans="1:8" ht="46" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -3142,17 +3327,17 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>330</v>
+      <c r="A7" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3162,12 +3347,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -3180,28 +3365,28 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="72.95" customHeight="1">
+    <row r="10" spans="1:8" ht="73" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -3211,23 +3396,23 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="72.95" customHeight="1">
+    <row r="11" spans="1:8" ht="73" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="60.95" customHeight="1">
+    <row r="12" spans="1:8" ht="61" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -3236,14 +3421,14 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="57.95" customHeight="1">
+    <row r="13" spans="1:8" ht="58" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -3259,13 +3444,13 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="72.95" customHeight="1">
+    <row r="14" spans="1:8" ht="73" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
@@ -3275,7 +3460,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="78.95" customHeight="1">
+    <row r="15" spans="1:8" ht="79" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>19</v>
@@ -3291,7 +3476,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="78.95" customHeight="1">
+    <row r="16" spans="1:8" ht="79" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -3308,33 +3493,33 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>326</v>
+      <c r="C17" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
@@ -3360,21 +3545,21 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="51.95" customHeight="1">
+    <row r="21" spans="1:8" ht="52" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3382,59 +3567,59 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3478,7 +3663,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3501,7 +3686,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="51.95" customHeight="1">
+    <row r="30" spans="1:8" ht="52" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -3517,7 +3702,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="62.1" customHeight="1">
+    <row r="31" spans="1:8" ht="62" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>10</v>
@@ -3531,7 +3716,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="54.95" customHeight="1">
+    <row r="32" spans="1:8" ht="55" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -3548,18 +3733,18 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" ht="60.95" customHeight="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="61" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>37</v>
@@ -3573,23 +3758,23 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="60.95" customHeight="1">
+    <row r="35" spans="1:8" ht="61" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="53.1" customHeight="1">
+    <row r="36" spans="1:8" ht="53" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>38</v>
@@ -3603,7 +3788,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="51.95" customHeight="1">
+    <row r="37" spans="1:8" ht="52" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>42</v>
@@ -3616,7 +3801,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="11" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3655,7 +3840,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="53.1" customHeight="1">
+    <row r="40" spans="1:8" ht="53" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>50</v>
@@ -3685,7 +3870,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="42" spans="1:8" ht="37" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>38</v>
@@ -3699,7 +3884,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="54.95" customHeight="1">
+    <row r="43" spans="1:8" ht="55" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>40</v>
@@ -3727,7 +3912,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="42.95" customHeight="1">
+    <row r="45" spans="1:8" ht="43" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>38</v>
@@ -3741,7 +3926,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="65.099999999999994" customHeight="1">
+    <row r="46" spans="1:8" ht="65" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>38</v>
@@ -3757,7 +3942,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="47" spans="1:8" ht="40" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>40</v>
@@ -3771,7 +3956,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="83.1" customHeight="1">
+    <row r="48" spans="1:8" ht="83" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>38</v>
@@ -3787,14 +3972,14 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="56.1" customHeight="1">
+    <row r="49" spans="1:8" ht="56" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
@@ -3817,7 +4002,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="56.1" customHeight="1">
+    <row r="51" spans="1:8" ht="56" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -3849,7 +4034,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="57.95" customHeight="1">
+    <row r="53" spans="1:8" ht="58" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
         <v>64</v>
@@ -3913,7 +4098,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="59.1" customHeight="1">
+    <row r="57" spans="1:8" ht="59" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>64</v>
@@ -3931,7 +4116,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="44.1" customHeight="1">
+    <row r="58" spans="1:8" ht="44" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>64</v>
@@ -3958,12 +4143,12 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="57.95" customHeight="1">
+    <row r="60" spans="1:8" ht="58" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>64</v>
@@ -3977,7 +4162,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="74.099999999999994" customHeight="1">
+    <row r="61" spans="1:8" ht="74" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>76</v>
@@ -3993,7 +4178,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="62" spans="1:8" ht="40" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>78</v>
@@ -4002,7 +4187,7 @@
         <v>84</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
@@ -4011,7 +4196,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="50.1" customHeight="1">
+    <row r="63" spans="1:8" ht="50" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>64</v>
@@ -4027,7 +4212,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="83.1" customHeight="1">
+    <row r="64" spans="1:8" ht="83" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>64</v>
@@ -4045,19 +4230,19 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="45.95" customHeight="1">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:8" ht="46" customHeight="1">
+      <c r="A65" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="1:8" ht="48.95" customHeight="1">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+    </row>
+    <row r="66" spans="1:8" ht="49" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
         <v>87</v>
@@ -4073,7 +4258,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="67" spans="1:8" ht="40" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
         <v>90</v>
@@ -4087,7 +4272,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="68" spans="1:8" ht="37" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
         <v>90</v>
@@ -4101,7 +4286,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="45.95" customHeight="1">
+    <row r="69" spans="1:8" ht="46" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
         <v>90</v>
@@ -4122,7 +4307,7 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
@@ -4131,7 +4316,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" ht="24.95" customHeight="1">
+    <row r="71" spans="1:8" ht="25" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
         <v>90</v>
@@ -4145,7 +4330,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="72" spans="1:8" ht="37" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
         <v>90</v>
@@ -4161,7 +4346,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" ht="48.95" customHeight="1">
+    <row r="73" spans="1:8" ht="49" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
         <v>87</v>
@@ -4182,7 +4367,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="5" t="s">
@@ -4191,7 +4376,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8" ht="66.95" customHeight="1">
+    <row r="75" spans="1:8" ht="67" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
         <v>103</v>
@@ -4207,14 +4392,14 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8" ht="66.95" customHeight="1">
+    <row r="76" spans="1:8" ht="67" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="5"/>
@@ -4246,7 +4431,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
@@ -4262,7 +4447,7 @@
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="5" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -4290,24 +4475,24 @@
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:8" ht="50" customHeight="1">
+      <c r="A82" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="18"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" ht="29.25" customHeight="1">
       <c r="A83" s="4"/>
@@ -4323,7 +4508,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="23.1" customHeight="1">
+    <row r="84" spans="1:8" ht="23" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>110</v>
@@ -4354,11 +4539,11 @@
     <row r="86" spans="1:8" ht="27" customHeight="1">
       <c r="A86" s="10"/>
       <c r="B86" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4368,11 +4553,11 @@
     <row r="87" spans="1:8" ht="27" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4382,26 +4567,26 @@
     <row r="88" spans="1:8" ht="27" customHeight="1">
       <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" ht="36.950000000000003" customHeight="1">
-      <c r="A89" s="22" t="s">
-        <v>367</v>
+    <row r="89" spans="1:8" ht="37" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>341</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>114</v>
@@ -4413,16 +4598,16 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="30.95" customHeight="1">
-      <c r="A90" s="23"/>
+    <row r="90" spans="1:8" ht="31" customHeight="1">
+      <c r="A90" s="18"/>
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
@@ -4431,14 +4616,14 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="33.950000000000003" customHeight="1">
-      <c r="A91" s="23"/>
+    <row r="91" spans="1:8" ht="34" customHeight="1">
+      <c r="A91" s="18"/>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="12" t="s">
@@ -4447,13 +4632,13 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="33.950000000000003" customHeight="1">
-      <c r="A92" s="24"/>
+    <row r="92" spans="1:8" ht="34" customHeight="1">
+      <c r="A92" s="19"/>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>119</v>
@@ -4465,32 +4650,32 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" ht="44.1" customHeight="1">
+    <row r="93" spans="1:8" ht="44" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="32.1" customHeight="1">
+    <row r="94" spans="1:8" ht="32" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4498,7 +4683,7 @@
     <row r="95" spans="1:8" ht="32.25" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
@@ -4509,7 +4694,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="29.1" customHeight="1">
+    <row r="96" spans="1:8" ht="29" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>110</v>
@@ -4523,7 +4708,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" ht="38.1" customHeight="1">
+    <row r="97" spans="1:8" ht="38" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>110</v>
@@ -4559,19 +4744,19 @@
         <v>19</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" ht="44.1" customHeight="1">
+    <row r="100" spans="1:8" ht="44" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>128</v>
@@ -4582,115 +4767,115 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="12" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" ht="44.1" customHeight="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22" t="s">
+    <row r="101" spans="1:8" ht="44" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" ht="66" customHeight="1">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" ht="66" customHeight="1">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" ht="66" customHeight="1">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" ht="66" customHeight="1">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="106" spans="1:8" ht="34" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="107" spans="1:8" ht="34" customHeight="1">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
@@ -4698,59 +4883,59 @@
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" ht="48" customHeight="1">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22" t="s">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="5" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" ht="48" customHeight="1">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" ht="48" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" ht="48" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="22" t="s">
-        <v>391</v>
+      <c r="A111" s="16"/>
+      <c r="B111" s="17" t="s">
+        <v>365</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
@@ -4758,13 +4943,13 @@
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" ht="48" customHeight="1">
-      <c r="A112" s="25"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="4" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
@@ -4772,13 +4957,13 @@
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" ht="48" customHeight="1">
-      <c r="A113" s="25"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="4" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
@@ -4786,27 +4971,27 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" ht="48" customHeight="1">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25" t="s">
-        <v>361</v>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="44.1" customHeight="1">
+    <row r="115" spans="1:8" ht="44" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
@@ -4815,23 +5000,23 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="116" spans="1:8" ht="37" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" ht="44.1" customHeight="1">
+    <row r="117" spans="1:8" ht="44" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>110</v>
@@ -4845,7 +5030,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" ht="27.95" customHeight="1">
+    <row r="118" spans="1:8" ht="28" customHeight="1">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>110</v>
@@ -4856,14 +5041,14 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="5" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22" t="s">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C119" s="4"/>
@@ -4872,70 +5057,70 @@
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25" t="s">
-        <v>407</v>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" ht="24.95" customHeight="1">
+    <row r="123" spans="1:8" ht="25" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" ht="30.95" customHeight="1">
+    <row r="124" spans="1:8" ht="31" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>130</v>
@@ -4951,7 +5136,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" ht="30.95" customHeight="1">
+    <row r="125" spans="1:8" ht="31" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>130</v>
@@ -4985,7 +5170,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" ht="27.95" customHeight="1">
+    <row r="127" spans="1:8" ht="28" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>142</v>
@@ -5003,7 +5188,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" ht="44.1" customHeight="1">
+    <row r="128" spans="1:8" ht="44" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>14</v>
@@ -5017,7 +5202,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" ht="24">
+    <row r="129" spans="1:8" ht="26">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>14</v>
@@ -5031,7 +5216,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" ht="84.95" customHeight="1">
+    <row r="130" spans="1:8" ht="85" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>14</v>
@@ -5045,7 +5230,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" ht="44.1" customHeight="1">
+    <row r="131" spans="1:8" ht="44" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>130</v>
@@ -5061,7 +5246,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" ht="41.1" customHeight="1">
+    <row r="132" spans="1:8" ht="41" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>130</v>
@@ -5091,7 +5276,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="37" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>110</v>
@@ -5105,40 +5290,42 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" ht="44.1" customHeight="1">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:8" ht="44" customHeight="1">
+      <c r="A135" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="18"/>
-    </row>
-    <row r="136" spans="1:8" ht="42" customHeight="1">
-      <c r="A136" s="8"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="25"/>
+    </row>
+    <row r="136" spans="1:8" ht="44" customHeight="1">
+      <c r="A136" s="29"/>
       <c r="B136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>387</v>
+      </c>
       <c r="D136" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" ht="39.950000000000003" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:8" ht="40" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
@@ -5148,11 +5335,11 @@
     <row r="138" spans="1:8">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -5162,11 +5349,11 @@
     <row r="139" spans="1:8">
       <c r="A139" s="8"/>
       <c r="B139" s="4" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="4"/>
@@ -5176,11 +5363,11 @@
     <row r="140" spans="1:8">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="4"/>
@@ -5190,11 +5377,11 @@
     <row r="141" spans="1:8">
       <c r="A141" s="8"/>
       <c r="B141" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -5202,121 +5389,119 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" ht="24" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="4" t="s">
-        <v>177</v>
+      <c r="A142" s="30"/>
+      <c r="B142" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="33.950000000000003" customHeight="1">
-      <c r="A143" s="8"/>
-      <c r="B143" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>218</v>
-      </c>
+    <row r="143" spans="1:8" ht="24" customHeight="1">
+      <c r="A143" s="31"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E143" s="13"/>
-      <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="144" spans="1:8" ht="34" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C144" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="D144" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E144" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="E144" s="19"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" ht="40" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="24" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" ht="36">
+    <row r="147" spans="1:8" ht="50" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" ht="24">
+    <row r="148" spans="1:8" ht="34" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" ht="24" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="4"/>
@@ -5326,59 +5511,59 @@
     <row r="150" spans="1:8" ht="36" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="25" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" ht="25" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" ht="26">
       <c r="A153" s="8"/>
       <c r="B153" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -5386,43 +5571,47 @@
     <row r="154" spans="1:8">
       <c r="A154" s="8"/>
       <c r="B154" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" ht="24">
+    <row r="155" spans="1:8" ht="26">
       <c r="A155" s="8"/>
       <c r="B155" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="D155" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="24" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C156" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="D156" s="4" t="s">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="4"/>
@@ -5432,11 +5621,11 @@
     <row r="157" spans="1:8">
       <c r="A157" s="8"/>
       <c r="B157" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="4"/>
@@ -5446,11 +5635,11 @@
     <row r="158" spans="1:8">
       <c r="A158" s="8"/>
       <c r="B158" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -5460,11 +5649,11 @@
     <row r="159" spans="1:8">
       <c r="A159" s="8"/>
       <c r="B159" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="4"/>
@@ -5474,11 +5663,11 @@
     <row r="160" spans="1:8">
       <c r="A160" s="8"/>
       <c r="B160" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="4"/>
@@ -5488,15 +5677,15 @@
     <row r="161" spans="1:8">
       <c r="A161" s="8"/>
       <c r="B161" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -5504,11 +5693,11 @@
     <row r="162" spans="1:8">
       <c r="A162" s="8"/>
       <c r="B162" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -5518,11 +5707,11 @@
     <row r="163" spans="1:8">
       <c r="A163" s="8"/>
       <c r="B163" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="4"/>
@@ -5532,43 +5721,43 @@
     <row r="164" spans="1:8">
       <c r="A164" s="8"/>
       <c r="B164" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" ht="96">
+    <row r="165" spans="1:8" ht="104">
       <c r="A165" s="8"/>
       <c r="B165" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5"/>
       <c r="F165" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" ht="36">
+    <row r="166" spans="1:8" ht="39">
       <c r="A166" s="8"/>
       <c r="B166" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -5576,15 +5765,15 @@
     <row r="167" spans="1:8">
       <c r="A167" s="8"/>
       <c r="B167" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -5592,704 +5781,689 @@
     <row r="168" spans="1:8">
       <c r="A168" s="8"/>
       <c r="B168" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A169" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="18"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="8"/>
+    <row r="169" spans="1:8" ht="50" customHeight="1">
+      <c r="A169" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="25"/>
+    </row>
+    <row r="170" spans="1:8" ht="16" customHeight="1">
+      <c r="A170" s="32"/>
       <c r="B170" s="4" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="8"/>
       <c r="B171" s="4" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E171" s="5"/>
-      <c r="F171" s="4"/>
+      <c r="F171" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="8"/>
       <c r="B172" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" ht="36">
+    <row r="173" spans="1:8" ht="26">
       <c r="A173" s="8"/>
       <c r="B173" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>224</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E173" s="13"/>
+        <v>229</v>
+      </c>
+      <c r="E173" s="4"/>
       <c r="F173" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" ht="24">
-      <c r="A174" s="8"/>
-      <c r="B174" s="4" t="s">
-        <v>244</v>
+    <row r="174" spans="1:8" ht="39">
+      <c r="A174" s="30"/>
+      <c r="B174" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" ht="38.1" customHeight="1">
-      <c r="A175" s="8"/>
-      <c r="B175" s="4" t="s">
-        <v>245</v>
-      </c>
+    <row r="175" spans="1:8" ht="33" customHeight="1">
+      <c r="A175" s="31"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E175" s="5"/>
+        <v>399</v>
+      </c>
+      <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" ht="38.1" customHeight="1">
+    <row r="176" spans="1:8" ht="26">
       <c r="A176" s="8"/>
       <c r="B176" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" ht="36" customHeight="1">
+    <row r="177" spans="1:8" ht="38" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="D177" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E177" s="13"/>
+        <v>234</v>
+      </c>
+      <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="178" spans="1:8" ht="36" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="D178" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E178" s="13"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" ht="36" customHeight="1">
+    <row r="179" spans="1:8" ht="37" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5"/>
       <c r="F179" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" ht="36" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="4" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="D180" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E180" s="5"/>
       <c r="F180" s="4" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" ht="35.1" customHeight="1">
+    <row r="181" spans="1:8" ht="22" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C181" s="4"/>
-      <c r="D181" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E181" s="13"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
       <c r="F181" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A182" s="8"/>
-      <c r="B182" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C182" s="4"/>
+    <row r="182" spans="1:8" ht="32" customHeight="1">
+      <c r="A182" s="30"/>
+      <c r="B182" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="D182" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E182" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="E182" s="17"/>
       <c r="F182" s="4" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A183" s="8"/>
-      <c r="B183" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C183" s="4"/>
+    <row r="183" spans="1:8" ht="34" customHeight="1">
+      <c r="A183" s="33"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="34"/>
       <c r="D183" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E183" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="E183" s="18"/>
       <c r="F183" s="4" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A184" s="8"/>
-      <c r="B184" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C184" s="4"/>
+    <row r="184" spans="1:8" ht="35" customHeight="1">
+      <c r="A184" s="33"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="34"/>
       <c r="D184" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E184" s="18"/>
+      <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" ht="26.1" customHeight="1">
-      <c r="A185" s="8"/>
-      <c r="B185" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C185" s="4"/>
+    <row r="185" spans="1:8" ht="35" customHeight="1">
+      <c r="A185" s="33"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="34"/>
       <c r="D185" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E185" s="13"/>
+        <v>421</v>
+      </c>
+      <c r="E185" s="18"/>
       <c r="F185" s="4" t="s">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A186" s="8"/>
-      <c r="B186" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="4"/>
+    <row r="186" spans="1:8" ht="35" customHeight="1">
+      <c r="A186" s="31"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="34"/>
       <c r="D186" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E186" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="E186" s="19"/>
       <c r="F186" s="4" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="8"/>
-      <c r="B187" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="4"/>
+    <row r="187" spans="1:8" ht="35" customHeight="1">
+      <c r="A187" s="30"/>
+      <c r="B187" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C187" s="16"/>
       <c r="D187" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="E187" s="16"/>
+      <c r="F187" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="8"/>
-      <c r="B188" s="4" t="s">
-        <v>10</v>
-      </c>
+    <row r="188" spans="1:8" ht="35" customHeight="1">
+      <c r="A188" s="31"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E188" s="4"/>
+        <v>406</v>
+      </c>
+      <c r="E188" s="5"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="8"/>
-      <c r="B189" s="4" t="s">
-        <v>10</v>
+    <row r="189" spans="1:8" ht="35" customHeight="1">
+      <c r="A189" s="30"/>
+      <c r="B189" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E189" s="13"/>
-      <c r="F189" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="8"/>
-      <c r="B190" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C190" s="4"/>
+    <row r="190" spans="1:8" ht="35" customHeight="1">
+      <c r="A190" s="31"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D190" s="4" t="s">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="E190" s="5"/>
-      <c r="F190" s="4"/>
+      <c r="F190" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="8"/>
-      <c r="B191" s="4" t="s">
-        <v>19</v>
+    <row r="191" spans="1:8" ht="35" customHeight="1">
+      <c r="A191" s="30"/>
+      <c r="B191" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" ht="33.950000000000003" customHeight="1">
-      <c r="A192" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="18"/>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="8"/>
-      <c r="B193" s="4" t="s">
-        <v>274</v>
+    <row r="192" spans="1:8" ht="35" customHeight="1">
+      <c r="A192" s="31"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8" ht="35" customHeight="1">
+      <c r="A193" s="30"/>
+      <c r="B193" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>275</v>
+        <v>414</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="4" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8" ht="36">
-      <c r="A194" s="8"/>
-      <c r="B194" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="194" spans="1:8" ht="35" customHeight="1">
+      <c r="A194" s="33"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="4"/>
+        <v>415</v>
+      </c>
+      <c r="E194" s="13"/>
+      <c r="F194" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8" ht="48">
-      <c r="A195" s="8"/>
-      <c r="B195" s="4" t="s">
-        <v>278</v>
-      </c>
+    <row r="195" spans="1:8" ht="35" customHeight="1">
+      <c r="A195" s="33"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E195" s="5"/>
+        <v>416</v>
+      </c>
+      <c r="E195" s="13"/>
       <c r="F195" s="4" t="s">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8" ht="48">
-      <c r="A196" s="8"/>
-      <c r="B196" s="4" t="s">
-        <v>280</v>
-      </c>
+    <row r="196" spans="1:8" ht="49" customHeight="1">
+      <c r="A196" s="31"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4" t="s">
-        <v>271</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E196" s="13"/>
+      <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" ht="36">
+    <row r="197" spans="1:8" ht="32" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E197" s="13"/>
+        <v>240</v>
+      </c>
+      <c r="E197" s="5"/>
       <c r="F197" s="4" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" ht="24">
+    <row r="198" spans="1:8" ht="23" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="4" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="23" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="4" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E199" s="5"/>
+        <v>246</v>
+      </c>
+      <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="23" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="23" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="4" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="27" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="4" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="8"/>
-      <c r="B203" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="1:8" ht="24">
+    <row r="203" spans="1:8" ht="34" customHeight="1">
+      <c r="A203" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="25"/>
+    </row>
+    <row r="204" spans="1:8" ht="29" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E204" s="13"/>
-      <c r="F204" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" ht="29" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="4" t="s">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E205" s="5"/>
+        <v>427</v>
+      </c>
+      <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="1:8" ht="24">
+    <row r="206" spans="1:8" ht="29" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E206" s="5"/>
-      <c r="F206" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" ht="29" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="4" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E207" s="13"/>
+        <v>428</v>
+      </c>
+      <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A208" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="18"/>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="B209" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="4"/>
+    <row r="208" spans="1:8" ht="29" customHeight="1">
+      <c r="A208" s="30"/>
+      <c r="B208" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" ht="26">
+      <c r="A209" s="31"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="D209" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E209" s="13"/>
-      <c r="F209" s="4"/>
+        <v>435</v>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8" ht="24">
-      <c r="A210" s="8"/>
-      <c r="B210" s="4" t="s">
-        <v>19</v>
+    <row r="210" spans="1:8" ht="31" customHeight="1">
+      <c r="A210" s="30"/>
+      <c r="B210" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="8"/>
-      <c r="B211" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="211" spans="1:8" ht="29" customHeight="1">
+      <c r="A211" s="33"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E211" s="5"/>
+        <v>438</v>
+      </c>
+      <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="8"/>
-      <c r="B212" s="4" t="s">
-        <v>10</v>
-      </c>
+    <row r="212" spans="1:8" ht="25" customHeight="1">
+      <c r="A212" s="31"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E212" s="4"/>
+        <v>439</v>
+      </c>
+      <c r="E212" s="5"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="65">
       <c r="A213" s="8"/>
       <c r="B213" s="4" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E213" s="4"/>
+        <v>441</v>
+      </c>
+      <c r="E213" s="5"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8" ht="24">
+    <row r="214" spans="1:8" ht="39">
       <c r="A214" s="8"/>
       <c r="B214" s="4" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="C214" s="4"/>
-      <c r="D214" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H214" s="8"/>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" ht="26">
       <c r="A215" s="8"/>
       <c r="B215" s="4" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="4"/>
@@ -6299,15 +6473,13 @@
     <row r="216" spans="1:8">
       <c r="A216" s="8"/>
       <c r="B216" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>296</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E216" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E216" s="5"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
@@ -6315,43 +6487,43 @@
     <row r="217" spans="1:8">
       <c r="A217" s="8"/>
       <c r="B217" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C217" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D217" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4" t="s">
-        <v>298</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E217" s="13"/>
+      <c r="F217" s="4"/>
       <c r="G217" s="4" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="8"/>
       <c r="B218" s="4" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8" ht="24">
+    <row r="219" spans="1:8">
       <c r="A219" s="8"/>
       <c r="B219" s="4" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="4"/>
@@ -6361,55 +6533,59 @@
     <row r="220" spans="1:8">
       <c r="A220" s="8"/>
       <c r="B220" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C220" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D220" s="4" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="1:8" ht="24">
+    <row r="221" spans="1:8" ht="26">
       <c r="A221" s="8"/>
       <c r="B221" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C221" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D221" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E221" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="E221" s="13"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="1:8" ht="64.5" customHeight="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="8"/>
       <c r="B222" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" ht="26">
       <c r="A223" s="8"/>
       <c r="B223" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E223" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="E223" s="5"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
@@ -6421,124 +6597,119 @@
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E224" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E224" s="13"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="8"/>
-      <c r="B225" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="8"/>
-    </row>
-    <row r="226" spans="1:8" ht="36">
-      <c r="A226" s="8"/>
+    <row r="225" spans="1:8" ht="77" customHeight="1">
+      <c r="A225" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="25"/>
+    </row>
+    <row r="226" spans="1:8">
       <c r="B226" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="4" t="s">
-        <v>315</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="1:8" ht="48">
+    <row r="227" spans="1:8" ht="26">
       <c r="A227" s="8"/>
       <c r="B227" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E227" s="5"/>
+      <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="1:8" ht="68.25" customHeight="1">
+    <row r="228" spans="1:8">
       <c r="A228" s="8"/>
       <c r="B228" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="D228" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="1:8" ht="24">
+    <row r="229" spans="1:8">
       <c r="A229" s="8"/>
       <c r="B229" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E229" s="5"/>
-      <c r="F229" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="1:8" ht="24">
+    <row r="230" spans="1:8">
       <c r="A230" s="8"/>
       <c r="B230" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E230" s="5"/>
-      <c r="F230" s="4" t="s">
-        <v>319</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" ht="26">
       <c r="A231" s="8"/>
       <c r="B231" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E231" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="E231" s="5"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
+      <c r="G231" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="8"/>
-      <c r="B232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="E232" s="5"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -6546,49 +6717,302 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="8"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="5"/>
+      <c r="B233" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="8"/>
-      <c r="B234" s="4"/>
+      <c r="B234" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="E234" s="4"/>
-      <c r="F234" s="4"/>
-      <c r="G234" s="4"/>
+      <c r="F234" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="8"/>
-      <c r="B235" s="4"/>
+      <c r="B235" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
+      <c r="D235" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E235" s="5"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
+    <row r="236" spans="1:8" ht="26">
+      <c r="A236" s="8"/>
+      <c r="B236" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E236" s="5"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="8"/>
+      <c r="B237" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="1:8" ht="26">
+      <c r="A238" s="8"/>
+      <c r="B238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E238" s="5"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A239" s="8"/>
+      <c r="B239" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E239" s="5"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="8"/>
+      <c r="B240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="8"/>
+      <c r="B241" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="8"/>
+      <c r="B242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E242" s="5"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="8"/>
+    </row>
+    <row r="243" spans="1:8" ht="39">
+      <c r="A243" s="8"/>
+      <c r="B243" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E243" s="5"/>
+      <c r="F243" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="1:8" ht="52">
+      <c r="A244" s="8"/>
+      <c r="B244" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="1:8" ht="68.25" customHeight="1">
+      <c r="A245" s="8"/>
+      <c r="B245" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="1:8" ht="26">
+      <c r="A246" s="8"/>
+      <c r="B246" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E246" s="5"/>
+      <c r="F246" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="1:8" ht="26">
+      <c r="A247" s="8"/>
+      <c r="B247" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E247" s="5"/>
+      <c r="F247" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="8"/>
+      <c r="B248" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="8"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="8"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="8"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="8"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A208:H208"/>
-    <mergeCell ref="A192:H192"/>
+  <mergeCells count="43">
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="E182:E186"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="A203:H203"/>
     <mergeCell ref="A169:H169"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A33:H33"/>
@@ -6599,10 +7023,25 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A101:A105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="900" windowWidth="27200" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="4360" yWindow="60" windowWidth="27200" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="455">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,14 +1474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘悦看着屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译在啃着面包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸摸了摸下巴，眼神突然看到了韦波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1530,15 +1522,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.赵译和韦波躺着发呆2.看着油桶方向沉默，然后低下头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘悦在看着屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界杯比赛的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2247,14 +2231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与韦波前后景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【韦波？韦波！ 】韦波【这不是我的搜索界面嘛，原来他们已经部署上去了啊】韦波【哎，我看看】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张霸【域名？你工程域名是什么】</t>
   </si>
   <si>
@@ -2266,35 +2242,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>再次输入“acher”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次输入“weiba”。张霸再次输入些什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【不正确】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“192.168.3.2”，然后停住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度：张霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张霸【韦波？韦波！ 】韦波醒过来【什么，什么？】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韦波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与张霸前后景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入“192.168.3.2”，然后停住，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次输入“acher”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次输入“weiba”。张霸再次输入些什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【不正确】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕上输入“192.168.3.2”，又接着输入“acher”，显示404页面。屏幕正确显示出网页。搜索栏中打入了“狂战天下”“刘悦”。出现了一条新闻结果：18岁少女沉迷网游跳楼自杀。</t>
+    <t>张霸【韦波？韦波！ 】</t>
+  </si>
+  <si>
+    <t>张霸抬起头来叫韦波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与韦波前后景，角度：韦波正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦在看电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸低头打字（输入域名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕上输入“192.168.3.2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又接着输入“acher”显示404页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕正确显示出网页。搜索栏中打入了“狂战天下”“刘悦”。出现了一条新闻结果：18岁少女沉迷网游跳楼自杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波，并且有动身前往张霸方向的动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波【这不是我的搜索界面嘛，原来他们已经部署上去了啊】韦波【哎，我看看】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向：张霸正面，前景带着电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸看着电脑，并且思考。韦波入画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译在啃着面包</t>
+  </si>
+  <si>
+    <t>赵译和韦波躺着发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译看着油桶方向沉默，然后低下头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波看着油桶方向沉默，然后低下头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译和韦波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕世界杯比赛的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2302,7 +2352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2369,6 +2419,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2512,7 +2570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2646,8 +2704,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2691,6 +2759,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2727,26 +2808,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="143">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2813,6 +2889,11 @@
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2879,6 +2960,11 @@
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3208,10 +3294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A229" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3227,16 +3313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -3270,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -3299,13 +3385,13 @@
     <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3327,17 +3413,17 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>304</v>
+      <c r="A7" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3347,12 +3433,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -3365,15 +3451,15 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3386,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -3399,13 +3485,13 @@
     <row r="11" spans="1:8" ht="73" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3421,7 +3507,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3450,7 +3536,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
@@ -3493,33 +3579,33 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>300</v>
+      <c r="C17" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
@@ -3545,7 +3631,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3559,7 +3645,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3567,59 +3653,59 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3663,7 +3749,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3733,16 +3819,16 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="61" customHeight="1">
       <c r="A34" s="4"/>
@@ -3764,10 +3850,10 @@
         <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3801,7 +3887,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3979,7 +4065,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
@@ -4143,7 +4229,7 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -4187,7 +4273,7 @@
         <v>84</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
@@ -4231,16 +4317,16 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="46" customHeight="1">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
     </row>
     <row r="66" spans="1:8" ht="49" customHeight="1">
       <c r="A66" s="5"/>
@@ -4307,7 +4393,7 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
@@ -4367,7 +4453,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="5" t="s">
@@ -4395,11 +4481,11 @@
     <row r="76" spans="1:8" ht="67" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="5"/>
@@ -4431,7 +4517,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
@@ -4447,7 +4533,7 @@
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -4475,7 +4561,7 @@
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -4483,16 +4569,16 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" ht="50" customHeight="1">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:8" ht="29.25" customHeight="1">
       <c r="A83" s="4"/>
@@ -4539,11 +4625,11 @@
     <row r="86" spans="1:8" ht="27" customHeight="1">
       <c r="A86" s="10"/>
       <c r="B86" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4553,11 +4639,11 @@
     <row r="87" spans="1:8" ht="27" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4567,11 +4653,11 @@
     <row r="88" spans="1:8" ht="27" customHeight="1">
       <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4579,14 +4665,14 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" ht="37" customHeight="1">
-      <c r="A89" s="17" t="s">
-        <v>341</v>
+      <c r="A89" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>114</v>
@@ -4599,12 +4685,12 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" ht="31" customHeight="1">
-      <c r="A90" s="18"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>170</v>
@@ -4617,7 +4703,7 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="34" customHeight="1">
-      <c r="A91" s="18"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
@@ -4633,12 +4719,12 @@
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="34" customHeight="1">
-      <c r="A92" s="19"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>119</v>
@@ -4657,7 +4743,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4667,15 +4753,15 @@
     <row r="94" spans="1:8" ht="32" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4683,7 +4769,7 @@
     <row r="95" spans="1:8" ht="32.25" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
@@ -4744,14 +4830,14 @@
         <v>19</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4767,89 +4853,89 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" ht="44" customHeight="1">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17" t="s">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" ht="66" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" ht="66" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" ht="66" customHeight="1">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" ht="66" customHeight="1">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -4861,7 +4947,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
@@ -4871,11 +4957,11 @@
     <row r="107" spans="1:8" ht="34" customHeight="1">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
@@ -4883,59 +4969,59 @@
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" ht="48" customHeight="1">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" ht="48" customHeight="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" ht="48" customHeight="1">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" ht="48" customHeight="1">
       <c r="A111" s="16"/>
-      <c r="B111" s="17" t="s">
-        <v>365</v>
+      <c r="B111" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
@@ -4944,12 +5030,12 @@
     </row>
     <row r="112" spans="1:8" ht="48" customHeight="1">
       <c r="A112" s="16"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
@@ -4958,12 +5044,12 @@
     </row>
     <row r="113" spans="1:8" ht="48" customHeight="1">
       <c r="A113" s="16"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
@@ -4973,11 +5059,11 @@
     <row r="114" spans="1:8" ht="48" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
@@ -4991,7 +5077,7 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
@@ -5007,11 +5093,11 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5041,14 +5127,14 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17" t="s">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C119" s="4"/>
@@ -5057,35 +5143,35 @@
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5093,11 +5179,11 @@
     <row r="122" spans="1:8" ht="46.5" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
@@ -5111,11 +5197,11 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -5291,32 +5377,32 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" ht="44" customHeight="1">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="25"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" ht="44" customHeight="1">
-      <c r="A136" s="29"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="29" t="s">
-        <v>387</v>
+      <c r="C136" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
+        <v>382</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" ht="40" customHeight="1">
       <c r="A137" s="8"/>
@@ -5325,7 +5411,7 @@
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
@@ -5335,7 +5421,7 @@
     <row r="138" spans="1:8">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
@@ -5349,7 +5435,7 @@
     <row r="139" spans="1:8">
       <c r="A139" s="8"/>
       <c r="B139" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
@@ -5363,7 +5449,7 @@
     <row r="140" spans="1:8">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
@@ -5389,8 +5475,8 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" ht="24" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="17" t="s">
+      <c r="A142" s="34"/>
+      <c r="B142" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C142" s="4"/>
@@ -5403,13 +5489,13 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" ht="24" customHeight="1">
-      <c r="A143" s="31"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="17"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="4" t="s">
         <v>180</v>
       </c>
@@ -5427,7 +5513,7 @@
       <c r="D144" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="19"/>
+      <c r="E144" s="24"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -5453,7 +5539,7 @@
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="4"/>
@@ -5485,7 +5571,7 @@
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="4"/>
@@ -5529,7 +5615,7 @@
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="4"/>
@@ -5580,7 +5666,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H154" s="4"/>
     </row>
@@ -5590,7 +5676,7 @@
         <v>192</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>193</v>
@@ -5608,10 +5694,10 @@
         <v>192</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="4"/>
@@ -5793,30 +5879,30 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="50" customHeight="1">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="25"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="30"/>
     </row>
     <row r="170" spans="1:8" ht="16" customHeight="1">
-      <c r="A170" s="32"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
+        <v>394</v>
+      </c>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="8"/>
@@ -5865,8 +5951,8 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="39">
-      <c r="A174" s="30"/>
-      <c r="B174" s="17" t="s">
+      <c r="A174" s="34"/>
+      <c r="B174" s="22" t="s">
         <v>230</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -5877,17 +5963,17 @@
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="33" customHeight="1">
-      <c r="A175" s="31"/>
-      <c r="B175" s="19"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -5961,7 +6047,7 @@
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="4" t="s">
@@ -5985,71 +6071,71 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="32" customHeight="1">
-      <c r="A182" s="30"/>
-      <c r="B182" s="17" t="s">
+      <c r="A182" s="34"/>
+      <c r="B182" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E182" s="17"/>
+        <v>398</v>
+      </c>
+      <c r="E182" s="22"/>
       <c r="F182" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="34" customHeight="1">
-      <c r="A183" s="33"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="34"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E183" s="18"/>
+        <v>398</v>
+      </c>
+      <c r="E183" s="23"/>
       <c r="F183" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="35" customHeight="1">
-      <c r="A184" s="33"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="34"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E184" s="18"/>
+        <v>401</v>
+      </c>
+      <c r="E184" s="23"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="35" customHeight="1">
-      <c r="A185" s="33"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="34"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E185" s="18"/>
+        <v>417</v>
+      </c>
+      <c r="E185" s="23"/>
       <c r="F185" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="35" customHeight="1">
-      <c r="A186" s="31"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="34"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E186" s="19"/>
+        <v>417</v>
+      </c>
+      <c r="E186" s="24"/>
       <c r="F186" s="4" t="s">
         <v>223</v>
       </c>
@@ -6057,27 +6143,27 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="35" customHeight="1">
-      <c r="A187" s="30"/>
-      <c r="B187" s="17" t="s">
+      <c r="A187" s="34"/>
+      <c r="B187" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="35" customHeight="1">
-      <c r="A188" s="31"/>
-      <c r="B188" s="19"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="4"/>
@@ -6085,45 +6171,45 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="35" customHeight="1">
-      <c r="A189" s="30"/>
-      <c r="B189" s="17" t="s">
+      <c r="A189" s="34"/>
+      <c r="B189" s="22" t="s">
         <v>236</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="35" customHeight="1">
-      <c r="A190" s="31"/>
-      <c r="B190" s="19"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="35" customHeight="1">
-      <c r="A191" s="30"/>
-      <c r="B191" s="17" t="s">
+      <c r="A191" s="34"/>
+      <c r="B191" s="22" t="s">
         <v>239</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
@@ -6131,11 +6217,11 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="35" customHeight="1">
-      <c r="A192" s="31"/>
-      <c r="B192" s="19"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -6143,57 +6229,57 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="35" customHeight="1">
-      <c r="A193" s="30"/>
-      <c r="B193" s="17" t="s">
+      <c r="A193" s="34"/>
+      <c r="B193" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C193" s="4"/>
+      <c r="C193" s="22"/>
       <c r="D193" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E193" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="E193" s="22"/>
       <c r="F193" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="35" customHeight="1">
-      <c r="A194" s="33"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="4"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
       <c r="D194" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E194" s="13"/>
+        <v>411</v>
+      </c>
+      <c r="E194" s="23"/>
       <c r="F194" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="35" customHeight="1">
-      <c r="A195" s="33"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="4"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
       <c r="D195" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E195" s="13"/>
+        <v>412</v>
+      </c>
+      <c r="E195" s="23"/>
       <c r="F195" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="49" customHeight="1">
-      <c r="A196" s="31"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="4"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
       <c r="D196" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E196" s="13"/>
+        <v>413</v>
+      </c>
+      <c r="E196" s="24"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
@@ -6285,16 +6371,16 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="34" customHeight="1">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="25"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="29"/>
+      <c r="H203" s="30"/>
     </row>
     <row r="204" spans="1:8" ht="29" customHeight="1">
       <c r="A204" s="8"/>
@@ -6315,11 +6401,11 @@
     <row r="205" spans="1:8" ht="29" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -6329,15 +6415,17 @@
     <row r="206" spans="1:8" ht="29" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="4" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D206" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -6345,110 +6433,116 @@
     <row r="207" spans="1:8" ht="29" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4" t="s">
-        <v>428</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="F207" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="29" customHeight="1">
-      <c r="A208" s="30"/>
-      <c r="B208" s="17" t="s">
-        <v>19</v>
+      <c r="A208" s="8"/>
+      <c r="B208" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E208" s="4"/>
-      <c r="F208" s="4" t="s">
-        <v>434</v>
-      </c>
+      <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="1:8" ht="26">
-      <c r="A209" s="31"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="4" t="s">
-        <v>436</v>
-      </c>
+    <row r="209" spans="1:8" ht="29" customHeight="1">
+      <c r="A209" s="21"/>
+      <c r="B209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8" ht="31" customHeight="1">
-      <c r="A210" s="30"/>
-      <c r="B210" s="17" t="s">
-        <v>385</v>
+    <row r="210" spans="1:8" ht="26">
+      <c r="A210" s="21"/>
+      <c r="B210" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8" ht="29" customHeight="1">
-      <c r="A211" s="33"/>
-      <c r="B211" s="18"/>
+    <row r="211" spans="1:8" ht="24" customHeight="1">
+      <c r="A211" s="37"/>
+      <c r="B211" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="C211" s="4"/>
-      <c r="D211" s="4" t="s">
-        <v>438</v>
+      <c r="D211" s="38" t="s">
+        <v>449</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8" ht="25" customHeight="1">
-      <c r="A212" s="31"/>
-      <c r="B212" s="19"/>
+    <row r="212" spans="1:8" ht="29" customHeight="1">
+      <c r="A212" s="37"/>
+      <c r="B212" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E212" s="5"/>
+      <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8" ht="65">
-      <c r="A213" s="8"/>
-      <c r="B213" s="4" t="s">
-        <v>254</v>
+    <row r="213" spans="1:8" ht="29" customHeight="1">
+      <c r="A213" s="37"/>
+      <c r="B213" s="20" t="s">
+        <v>440</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8" ht="39">
-      <c r="A214" s="8"/>
-      <c r="B214" s="4" t="s">
-        <v>255</v>
+    <row r="214" spans="1:8" ht="31" customHeight="1">
+      <c r="A214" s="34"/>
+      <c r="B214" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4" t="s">
         <v>430</v>
@@ -6456,108 +6550,96 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="1:8" ht="26">
-      <c r="A215" s="8"/>
-      <c r="B215" s="4" t="s">
-        <v>256</v>
-      </c>
+    <row r="215" spans="1:8" ht="29" customHeight="1">
+      <c r="A215" s="35"/>
+      <c r="B215" s="23"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E215" s="5"/>
+        <v>428</v>
+      </c>
+      <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="8"/>
-      <c r="B216" s="4" t="s">
-        <v>254</v>
-      </c>
+    <row r="216" spans="1:8" ht="25" customHeight="1">
+      <c r="A216" s="36"/>
+      <c r="B216" s="24"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="8"/>
-      <c r="B217" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>247</v>
-      </c>
+    <row r="217" spans="1:8" ht="25" customHeight="1">
+      <c r="A217" s="34"/>
+      <c r="B217" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C217" s="22"/>
       <c r="D217" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E217" s="13"/>
+        <v>442</v>
+      </c>
+      <c r="E217" s="5"/>
       <c r="F217" s="4"/>
-      <c r="G217" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="8"/>
-      <c r="B218" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C218" s="4"/>
+    <row r="218" spans="1:8" ht="25" customHeight="1">
+      <c r="A218" s="35"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
       <c r="D218" s="4" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="8"/>
-      <c r="B219" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C219" s="4"/>
+    <row r="219" spans="1:8" ht="79" customHeight="1">
+      <c r="A219" s="36"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
       <c r="D219" s="4" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" ht="33" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>262</v>
+        <v>448</v>
       </c>
       <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
+      <c r="F220" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
     <row r="221" spans="1:8" ht="26">
       <c r="A221" s="8"/>
       <c r="B221" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>250</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C221" s="4"/>
       <c r="D221" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E221" s="13"/>
+        <v>257</v>
+      </c>
+      <c r="E221" s="5"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -6565,66 +6647,77 @@
     <row r="222" spans="1:8">
       <c r="A222" s="8"/>
       <c r="B222" s="4" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="1:8" ht="26">
+    <row r="223" spans="1:8">
       <c r="A223" s="8"/>
       <c r="B223" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C223" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D223" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E223" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="E223" s="13"/>
       <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
+      <c r="G223" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="8"/>
       <c r="B224" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D224" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E224" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="1:8" ht="77" customHeight="1">
-      <c r="A225" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="24"/>
-      <c r="G225" s="24"/>
-      <c r="H225" s="25"/>
+    <row r="225" spans="1:8" ht="26">
+      <c r="A225" s="8"/>
+      <c r="B225" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E225" s="13"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
     </row>
     <row r="226" spans="1:8">
+      <c r="A226" s="8"/>
       <c r="B226" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E226" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="E226" s="5"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
@@ -6636,7 +6729,7 @@
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="4"/>
@@ -6646,69 +6739,65 @@
     <row r="228" spans="1:8">
       <c r="A228" s="8"/>
       <c r="B228" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E228" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="E228" s="13"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="8"/>
-      <c r="B229" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="1:8">
+    <row r="229" spans="1:8" ht="77" customHeight="1">
+      <c r="A229" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="29"/>
+      <c r="G229" s="29"/>
+      <c r="H229" s="30"/>
+    </row>
+    <row r="230" spans="1:8" ht="23" customHeight="1">
       <c r="A230" s="8"/>
       <c r="B230" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E230" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="E230" s="13"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="1:8" ht="26">
-      <c r="A231" s="8"/>
-      <c r="B231" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C231" s="4"/>
+    <row r="231" spans="1:8" ht="19" customHeight="1">
+      <c r="A231" s="34"/>
+      <c r="B231" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>453</v>
+      </c>
       <c r="D231" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E231" s="5"/>
+        <v>450</v>
+      </c>
+      <c r="E231" s="13"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H231" s="8"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="8"/>
-      <c r="B232" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C232" s="4"/>
+      <c r="A232" s="35"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
       <c r="D232" s="4" t="s">
-        <v>278</v>
+        <v>451</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="4"/>
@@ -6716,17 +6805,13 @@
       <c r="H232" s="4"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="8"/>
-      <c r="B233" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="A233" s="36"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
       <c r="D233" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E233" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="E233" s="5"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -6734,87 +6819,87 @@
     <row r="234" spans="1:8">
       <c r="A234" s="8"/>
       <c r="B234" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E234" s="4"/>
-      <c r="F234" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G234" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="E234" s="5"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="8"/>
       <c r="B235" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E235" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="1:8" ht="26">
+    <row r="236" spans="1:8">
       <c r="A236" s="8"/>
       <c r="B236" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E236" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" ht="26">
       <c r="A237" s="8"/>
       <c r="B237" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E237" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="E237" s="5"/>
       <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="1:8" ht="26">
+      <c r="G237" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H237" s="8"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="8"/>
       <c r="B238" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="1:8" ht="64.5" customHeight="1">
+    <row r="239" spans="1:8">
       <c r="A239" s="8"/>
       <c r="B239" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C239" s="4"/>
+      <c r="C239" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="D239" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E239" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
@@ -6826,194 +6911,269 @@
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
+      <c r="F240" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="8"/>
       <c r="B241" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E241" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="E241" s="5"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" ht="26">
       <c r="A242" s="8"/>
       <c r="B242" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" spans="1:8" ht="39">
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="8"/>
       <c r="B243" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="1:8" ht="52">
+    <row r="244" spans="1:8" ht="26">
       <c r="A244" s="8"/>
       <c r="B244" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="E244" s="5"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="1:8" ht="68.25" customHeight="1">
+    <row r="245" spans="1:8" ht="64.5" customHeight="1">
       <c r="A245" s="8"/>
       <c r="B245" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4" t="s">
-        <v>295</v>
-      </c>
+      <c r="D245" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E245" s="5"/>
+      <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="1:8" ht="26">
+    <row r="246" spans="1:8">
       <c r="A246" s="8"/>
       <c r="B246" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E246" s="5"/>
-      <c r="F246" s="4" t="s">
-        <v>294</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="1:8" ht="26">
+    <row r="247" spans="1:8">
       <c r="A247" s="8"/>
       <c r="B247" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E247" s="5"/>
-      <c r="F247" s="4" t="s">
-        <v>293</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="8"/>
       <c r="B248" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E248" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="E248" s="5"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="H248" s="8"/>
+    </row>
+    <row r="249" spans="1:8" ht="39">
       <c r="A249" s="8"/>
-      <c r="B249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="E249" s="5"/>
-      <c r="F249" s="4"/>
+      <c r="F249" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" ht="52">
       <c r="A250" s="8"/>
-      <c r="B250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="4"/>
+      <c r="D250" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" ht="68.25" customHeight="1">
       <c r="A251" s="8"/>
-      <c r="B251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="4"/>
+      <c r="F251" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" ht="26">
       <c r="A252" s="8"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
+      <c r="D252" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E252" s="5"/>
+      <c r="F252" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
+    <row r="253" spans="1:8" ht="26">
+      <c r="A253" s="8"/>
+      <c r="B253" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E253" s="5"/>
+      <c r="F253" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="8"/>
+      <c r="B254" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="8"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="8"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="8"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="8"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="E182:E186"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A225:H225"/>
-    <mergeCell ref="A203:H203"/>
-    <mergeCell ref="A169:H169"/>
+  <mergeCells count="49">
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="C231:C233"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A65:H65"/>
@@ -7023,21 +7183,40 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A229:H229"/>
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="A169:H169"/>
     <mergeCell ref="B193:B196"/>
     <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="E182:E186"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A101:A105"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="C193:C196"/>
     <mergeCell ref="B119:B121"/>
     <mergeCell ref="A119:A121"/>
     <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="60" windowWidth="27200" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="479">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前后景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门被推开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1530,18 +1526,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张霸抬头看着刘悦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘悦开心地举起双臂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门被推开，一桶汽油桶被推了进来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘悦举着双臂，呆住，看着油桶沉默，然后垂下手，低下头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1566,38 +1554,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘悦【什么意思】刘悦【为何不使用你们那个虫子对警察官网进行大规模的恶意访问，让他们怀疑嘛，一旦怀疑，他们就会查访问者的地址，不是吗？】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译和韦波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张霸【上传端口没被锁定】张霸【意思是我们能报警】张霸【入侵警察本部网络要用多长时间？】张霸【不行。太长了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.张霸忽然抬起头2.张霸看了一下时钟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>屏幕右下角的时间，一次是11点50分，一次是11点55分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘悦突然站起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘悦【我们为什么不反抗啊，他们就几个人嘛】</t>
-  </si>
-  <si>
-    <t>韦波【我最少要两天】赵译【业余姑娘，人家有武器啊】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵译【你打算怎么做，你能上网，不能代表你能打电话】赵译【业余姑娘，人家用的是国外ip代理。我们又不笨】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2332,19 +2289,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵译看着油桶方向沉默，然后低下头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦波看着油桶方向沉默，然后低下头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵译和韦波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>屏幕世界杯比赛的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后景变焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸看着刘悦，若有所思，突然脑瑟顿开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门被推开，一桶汽油桶被推了进来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门被推开，一桶汽油桶被推了进来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译听到门推开，往门方向看。看着油桶方向沉默，然后低下头，与韦波拍了拍手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波听到门推开，往门方向看。看着油桶方向沉默，然后低下头，与赵译拍了拍手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状况，众人沮丧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸看着电脑，刘悦的手入画，点了一下张霸的肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正反打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为何不使用你们那个虫子对警察官网进行大规模的恶意访问，让他们怀疑嘛，一旦怀疑，他们就会查访问者的地址，不是吗？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波和赵译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【业余姑娘，人家用的是国外ip代理。】韦波【我们又不笨】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸和刘悦。张霸突然使用起电脑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【上传端口没被锁定】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸突然抬起头，说完台词后看着刘悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦【什么意思？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【意思是我们能报警】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵译【你打算怎么做，你能上网，不能代表你能打电话】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦波【我最少要两天】。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【入侵警察本部网络要用多长时间？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【不行。太长了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸和刘悦。张霸低下头看着电脑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦【我们为什么不反抗啊，他们就几个人嘛】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸和刘悦。刘悦着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸【反抗？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦对着赵译说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘悦【我们为什么不反抗啊，他们就几个人嘛】赵译【业余姑娘，人家有武器啊】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸和刘悦，张霸看着刘悦，然后眼神再望顶上看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2570,7 +2667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2714,8 +2811,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2775,37 +2898,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2817,12 +2923,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2894,6 +3023,19 @@
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2965,6 +3107,19 @@
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3294,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A229" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A256" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3313,16 +3468,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -3356,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -3385,13 +3540,13 @@
     <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3413,17 +3568,17 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>300</v>
+      <c r="A7" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3433,12 +3588,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -3451,15 +3606,15 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3472,7 +3627,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -3485,13 +3640,13 @@
     <row r="11" spans="1:8" ht="73" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3507,7 +3662,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3536,7 +3691,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
@@ -3579,33 +3734,33 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>296</v>
+      <c r="C17" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
@@ -3631,7 +3786,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3645,7 +3800,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3653,59 +3808,59 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3749,7 +3904,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3819,16 +3974,16 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="61" customHeight="1">
       <c r="A34" s="4"/>
@@ -3850,10 +4005,10 @@
         <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3887,7 +4042,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -4065,7 +4220,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
@@ -4229,7 +4384,7 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -4273,7 +4428,7 @@
         <v>84</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
@@ -4317,16 +4472,16 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="46" customHeight="1">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" ht="49" customHeight="1">
       <c r="A66" s="5"/>
@@ -4393,7 +4548,7 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
@@ -4453,7 +4608,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="5" t="s">
@@ -4481,11 +4636,11 @@
     <row r="76" spans="1:8" ht="67" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="5"/>
@@ -4517,7 +4672,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
@@ -4533,7 +4688,7 @@
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -4561,7 +4716,7 @@
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -4569,16 +4724,16 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" ht="50" customHeight="1">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" spans="1:8" ht="29.25" customHeight="1">
       <c r="A83" s="4"/>
@@ -4625,11 +4780,11 @@
     <row r="86" spans="1:8" ht="27" customHeight="1">
       <c r="A86" s="10"/>
       <c r="B86" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4639,11 +4794,11 @@
     <row r="87" spans="1:8" ht="27" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4653,11 +4808,11 @@
     <row r="88" spans="1:8" ht="27" customHeight="1">
       <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4665,14 +4820,14 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" ht="37" customHeight="1">
-      <c r="A89" s="22" t="s">
-        <v>337</v>
+      <c r="A89" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>114</v>
@@ -4685,12 +4840,12 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" ht="31" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>170</v>
@@ -4703,7 +4858,7 @@
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="34" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
@@ -4719,12 +4874,12 @@
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="34" customHeight="1">
-      <c r="A92" s="24"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>119</v>
@@ -4743,7 +4898,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4753,15 +4908,15 @@
     <row r="94" spans="1:8" ht="32" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4769,7 +4924,7 @@
     <row r="95" spans="1:8" ht="32.25" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
@@ -4830,14 +4985,14 @@
         <v>19</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4853,89 +5008,89 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" ht="44" customHeight="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22" t="s">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" ht="66" customHeight="1">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" ht="66" customHeight="1">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" ht="66" customHeight="1">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" ht="66" customHeight="1">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -4947,7 +5102,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
@@ -4957,11 +5112,11 @@
     <row r="107" spans="1:8" ht="34" customHeight="1">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
@@ -4969,59 +5124,59 @@
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" ht="48" customHeight="1">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22" t="s">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" ht="48" customHeight="1">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" ht="48" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" ht="48" customHeight="1">
       <c r="A111" s="16"/>
-      <c r="B111" s="22" t="s">
-        <v>361</v>
+      <c r="B111" s="26" t="s">
+        <v>350</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
@@ -5030,12 +5185,12 @@
     </row>
     <row r="112" spans="1:8" ht="48" customHeight="1">
       <c r="A112" s="16"/>
-      <c r="B112" s="23"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
@@ -5044,12 +5199,12 @@
     </row>
     <row r="113" spans="1:8" ht="48" customHeight="1">
       <c r="A113" s="16"/>
-      <c r="B113" s="24"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
@@ -5059,11 +5214,11 @@
     <row r="114" spans="1:8" ht="48" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
@@ -5077,7 +5232,7 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
@@ -5093,11 +5248,11 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5127,14 +5282,14 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22" t="s">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C119" s="4"/>
@@ -5143,35 +5298,35 @@
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5179,11 +5334,11 @@
     <row r="122" spans="1:8" ht="46.5" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
@@ -5197,11 +5352,11 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -5377,16 +5532,16 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" ht="44" customHeight="1">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="30"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="37"/>
     </row>
     <row r="136" spans="1:8" ht="44" customHeight="1">
       <c r="A136" s="17"/>
@@ -5394,10 +5549,10 @@
         <v>8</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
@@ -5411,7 +5566,7 @@
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
@@ -5421,7 +5576,7 @@
     <row r="138" spans="1:8">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
@@ -5435,7 +5590,7 @@
     <row r="139" spans="1:8">
       <c r="A139" s="8"/>
       <c r="B139" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
@@ -5449,7 +5604,7 @@
     <row r="140" spans="1:8">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
@@ -5475,8 +5630,8 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" ht="24" customHeight="1">
-      <c r="A142" s="34"/>
-      <c r="B142" s="22" t="s">
+      <c r="A142" s="29"/>
+      <c r="B142" s="26" t="s">
         <v>175</v>
       </c>
       <c r="C142" s="4"/>
@@ -5489,13 +5644,13 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" ht="24" customHeight="1">
-      <c r="A143" s="36"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="22"/>
+      <c r="E143" s="26"/>
       <c r="F143" s="4" t="s">
         <v>180</v>
       </c>
@@ -5513,7 +5668,7 @@
       <c r="D144" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="24"/>
+      <c r="E144" s="28"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -5539,7 +5694,7 @@
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="4"/>
@@ -5571,7 +5726,7 @@
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="4"/>
@@ -5615,7 +5770,7 @@
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="4"/>
@@ -5666,7 +5821,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H154" s="4"/>
     </row>
@@ -5676,7 +5831,7 @@
         <v>192</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>193</v>
@@ -5694,10 +5849,10 @@
         <v>192</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="4"/>
@@ -5879,25 +6034,25 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="50" customHeight="1">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="30"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="37"/>
     </row>
     <row r="170" spans="1:8" ht="16" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="18"/>
@@ -5951,8 +6106,8 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="39">
-      <c r="A174" s="34"/>
-      <c r="B174" s="22" t="s">
+      <c r="A174" s="29"/>
+      <c r="B174" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -5963,17 +6118,17 @@
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="33" customHeight="1">
-      <c r="A175" s="36"/>
-      <c r="B175" s="24"/>
+      <c r="A175" s="31"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -6047,7 +6202,7 @@
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="4" t="s">
@@ -6071,71 +6226,71 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="32" customHeight="1">
-      <c r="A182" s="34"/>
-      <c r="B182" s="22" t="s">
+      <c r="A182" s="29"/>
+      <c r="B182" s="26" t="s">
         <v>238</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E182" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="E182" s="26"/>
       <c r="F182" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="34" customHeight="1">
-      <c r="A183" s="35"/>
-      <c r="B183" s="23"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="19"/>
       <c r="D183" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E183" s="23"/>
+        <v>387</v>
+      </c>
+      <c r="E183" s="27"/>
       <c r="F183" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="35" customHeight="1">
-      <c r="A184" s="35"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="19"/>
       <c r="D184" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E184" s="23"/>
+        <v>390</v>
+      </c>
+      <c r="E184" s="27"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="35" customHeight="1">
-      <c r="A185" s="35"/>
-      <c r="B185" s="23"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="19"/>
       <c r="D185" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E185" s="23"/>
+        <v>406</v>
+      </c>
+      <c r="E185" s="27"/>
       <c r="F185" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="35" customHeight="1">
-      <c r="A186" s="36"/>
-      <c r="B186" s="24"/>
+      <c r="A186" s="31"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="19"/>
       <c r="D186" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E186" s="24"/>
+        <v>406</v>
+      </c>
+      <c r="E186" s="28"/>
       <c r="F186" s="4" t="s">
         <v>223</v>
       </c>
@@ -6143,27 +6298,27 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="35" customHeight="1">
-      <c r="A187" s="34"/>
-      <c r="B187" s="22" t="s">
+      <c r="A187" s="29"/>
+      <c r="B187" s="26" t="s">
         <v>238</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="35" customHeight="1">
-      <c r="A188" s="36"/>
-      <c r="B188" s="24"/>
+      <c r="A188" s="31"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="4"/>
@@ -6171,45 +6326,45 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="35" customHeight="1">
-      <c r="A189" s="34"/>
-      <c r="B189" s="22" t="s">
+      <c r="A189" s="29"/>
+      <c r="B189" s="26" t="s">
         <v>236</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="35" customHeight="1">
-      <c r="A190" s="36"/>
-      <c r="B190" s="24"/>
+      <c r="A190" s="31"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="4" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="35" customHeight="1">
-      <c r="A191" s="34"/>
-      <c r="B191" s="22" t="s">
+      <c r="A191" s="29"/>
+      <c r="B191" s="26" t="s">
         <v>239</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
@@ -6217,11 +6372,11 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="35" customHeight="1">
-      <c r="A192" s="36"/>
-      <c r="B192" s="24"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -6229,57 +6384,57 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="35" customHeight="1">
-      <c r="A193" s="34"/>
-      <c r="B193" s="22" t="s">
+      <c r="A193" s="29"/>
+      <c r="B193" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C193" s="22"/>
+      <c r="C193" s="26"/>
       <c r="D193" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E193" s="22"/>
+        <v>399</v>
+      </c>
+      <c r="E193" s="26"/>
       <c r="F193" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="35" customHeight="1">
-      <c r="A194" s="35"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
       <c r="D194" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E194" s="23"/>
+        <v>400</v>
+      </c>
+      <c r="E194" s="27"/>
       <c r="F194" s="4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="35" customHeight="1">
-      <c r="A195" s="35"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
       <c r="D195" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E195" s="23"/>
+        <v>401</v>
+      </c>
+      <c r="E195" s="27"/>
       <c r="F195" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="49" customHeight="1">
-      <c r="A196" s="36"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
       <c r="D196" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E196" s="24"/>
+        <v>402</v>
+      </c>
+      <c r="E196" s="28"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
@@ -6371,16 +6526,16 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="34" customHeight="1">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="30"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="37"/>
     </row>
     <row r="204" spans="1:8" ht="29" customHeight="1">
       <c r="A204" s="8"/>
@@ -6401,11 +6556,11 @@
     <row r="205" spans="1:8" ht="29" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -6415,17 +6570,17 @@
     <row r="206" spans="1:8" ht="29" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="4" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -6433,15 +6588,15 @@
     <row r="207" spans="1:8" ht="29" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
@@ -6449,11 +6604,11 @@
     <row r="208" spans="1:8" ht="29" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -6467,11 +6622,11 @@
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
@@ -6483,23 +6638,23 @@
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="24" customHeight="1">
-      <c r="A211" s="37"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="38" t="s">
-        <v>449</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -6507,13 +6662,13 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="29" customHeight="1">
-      <c r="A212" s="37"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="20" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -6521,13 +6676,13 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="29" customHeight="1">
-      <c r="A213" s="37"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="20" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -6535,27 +6690,27 @@
       <c r="H213" s="4"/>
     </row>
     <row r="214" spans="1:8" ht="31" customHeight="1">
-      <c r="A214" s="34"/>
-      <c r="B214" s="22" t="s">
-        <v>381</v>
+      <c r="A214" s="29"/>
+      <c r="B214" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" ht="29" customHeight="1">
-      <c r="A215" s="35"/>
-      <c r="B215" s="23"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -6563,11 +6718,11 @@
       <c r="H215" s="4"/>
     </row>
     <row r="216" spans="1:8" ht="25" customHeight="1">
-      <c r="A216" s="36"/>
-      <c r="B216" s="24"/>
+      <c r="A216" s="31"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="4"/>
@@ -6575,13 +6730,13 @@
       <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8" ht="25" customHeight="1">
-      <c r="A217" s="34"/>
-      <c r="B217" s="22" t="s">
+      <c r="A217" s="29"/>
+      <c r="B217" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C217" s="22"/>
+      <c r="C217" s="26"/>
       <c r="D217" s="4" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="4"/>
@@ -6589,11 +6744,11 @@
       <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8" ht="25" customHeight="1">
-      <c r="A218" s="35"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
       <c r="D218" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="4"/>
@@ -6601,11 +6756,11 @@
       <c r="H218" s="4"/>
     </row>
     <row r="219" spans="1:8" ht="79" customHeight="1">
-      <c r="A219" s="36"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="24"/>
+      <c r="A219" s="31"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
       <c r="D219" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="4"/>
@@ -6618,14 +6773,14 @@
         <v>255</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
@@ -6751,16 +6906,16 @@
       <c r="H228" s="4"/>
     </row>
     <row r="229" spans="1:8" ht="77" customHeight="1">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="30"/>
+      <c r="B229" s="36"/>
+      <c r="C229" s="36"/>
+      <c r="D229" s="36"/>
+      <c r="E229" s="36"/>
+      <c r="F229" s="36"/>
+      <c r="G229" s="36"/>
+      <c r="H229" s="37"/>
     </row>
     <row r="230" spans="1:8" ht="23" customHeight="1">
       <c r="A230" s="8"/>
@@ -6769,7 +6924,7 @@
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E230" s="13"/>
       <c r="F230" s="4"/>
@@ -6777,39 +6932,39 @@
       <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8" ht="19" customHeight="1">
-      <c r="A231" s="34"/>
-      <c r="B231" s="22" t="s">
+      <c r="A231" s="29"/>
+      <c r="B231" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C231" s="22" t="s">
-        <v>453</v>
+      <c r="C231" s="26" t="s">
+        <v>440</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E231" s="13"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="35"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="23"/>
+    <row r="232" spans="1:8" ht="26">
+      <c r="A232" s="30"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
       <c r="D232" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="36"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="24"/>
+    <row r="233" spans="1:8" ht="26">
+      <c r="A233" s="31"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="28"/>
       <c r="D233" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="4"/>
@@ -6823,7 +6978,7 @@
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="4"/>
@@ -6837,7 +6992,7 @@
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -6849,7 +7004,9 @@
       <c r="B236" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="4"/>
+      <c r="C236" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D236" s="4" t="s">
         <v>266</v>
       </c>
@@ -6865,7 +7022,7 @@
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="4"/>
@@ -6881,7 +7038,7 @@
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4" t="s">
-        <v>274</v>
+        <v>444</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="4"/>
@@ -6894,10 +7051,10 @@
         <v>19</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>268</v>
+        <v>443</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -6915,93 +7072,93 @@
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="8"/>
       <c r="B241" s="4" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="1:8" ht="26">
+    <row r="242" spans="1:8">
       <c r="A242" s="8"/>
       <c r="B242" s="4" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" ht="26">
       <c r="A243" s="8"/>
       <c r="B243" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E243" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="E243" s="5"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="1:8" ht="26">
+    <row r="244" spans="1:8">
       <c r="A244" s="8"/>
       <c r="B244" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E244" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="1:8" ht="64.5" customHeight="1">
+    <row r="245" spans="1:8" ht="26">
       <c r="A245" s="8"/>
       <c r="B245" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" ht="64.5" customHeight="1">
       <c r="A246" s="8"/>
       <c r="B246" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E246" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="E246" s="5"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
@@ -7013,7 +7170,7 @@
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -7027,183 +7184,303 @@
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E248" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" spans="1:8" ht="39">
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="8"/>
       <c r="B249" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E249" s="5"/>
-      <c r="F249" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="F249" s="4"/>
       <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="1:8" ht="52">
+      <c r="H249" s="8"/>
+    </row>
+    <row r="250" spans="1:8" ht="29" customHeight="1">
       <c r="A250" s="8"/>
       <c r="B250" s="4" t="s">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E250" s="4"/>
-      <c r="F250" s="4" t="s">
-        <v>283</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="E250" s="5"/>
+      <c r="F250" s="4"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="1:8" ht="68.25" customHeight="1">
+      <c r="H250" s="8"/>
+    </row>
+    <row r="251" spans="1:8" ht="29" customHeight="1">
       <c r="A251" s="8"/>
       <c r="B251" s="4" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="D251" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E251" s="5"/>
+      <c r="F251" s="4"/>
       <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="1:8" ht="26">
-      <c r="A252" s="8"/>
-      <c r="B252" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C252" s="4"/>
+      <c r="H251" s="8"/>
+    </row>
+    <row r="252" spans="1:8" ht="47" customHeight="1">
+      <c r="A252" s="29"/>
+      <c r="B252" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="D252" s="4" t="s">
-        <v>284</v>
+        <v>454</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="4" t="s">
-        <v>290</v>
+        <v>456</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="1:8" ht="26">
-      <c r="A253" s="8"/>
-      <c r="B253" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" s="4"/>
+    <row r="253" spans="1:8" ht="47" customHeight="1">
+      <c r="A253" s="31"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="D253" s="4" t="s">
-        <v>288</v>
+        <v>454</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="4" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="8"/>
-      <c r="B254" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C254" s="4"/>
+    <row r="254" spans="1:8" ht="47" customHeight="1">
+      <c r="A254" s="29"/>
+      <c r="B254" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="D254" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
+        <v>457</v>
+      </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="8"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="4"/>
+    <row r="255" spans="1:8" ht="52">
+      <c r="A255" s="31"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="8"/>
-      <c r="B256" s="4"/>
+    <row r="256" spans="1:8" ht="77" customHeight="1">
+      <c r="A256" s="29"/>
+      <c r="B256" s="26" t="s">
+        <v>446</v>
+      </c>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="4"/>
+      <c r="D256" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="8"/>
-      <c r="B257" s="4"/>
+      <c r="H256" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="41" customHeight="1">
+      <c r="A257" s="30"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
+      <c r="F257" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="8"/>
-      <c r="B258" s="4"/>
+    <row r="258" spans="1:8" ht="68.25" customHeight="1">
+      <c r="A258" s="31"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
+      <c r="F258" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="23"/>
+      <c r="B259" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E259" s="5"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="8"/>
+      <c r="B260" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E260" s="5"/>
+      <c r="F260" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" spans="1:8" ht="26">
+      <c r="A261" s="29"/>
+      <c r="B261" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E261" s="5"/>
+      <c r="F261" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="30"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" spans="1:8" ht="26">
+      <c r="A263" s="31"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" spans="1:8" ht="26">
+      <c r="A264" s="8"/>
+      <c r="B264" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E264" s="5"/>
+      <c r="F264" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="8"/>
+      <c r="B265" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E265" s="5"/>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="8"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="8"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A229:H229"/>
-    <mergeCell ref="A203:H203"/>
-    <mergeCell ref="A169:H169"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="E182:E186"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
+  <mergeCells count="57">
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="A256:A258"/>
     <mergeCell ref="A89:A92"/>
     <mergeCell ref="E193:E196"/>
     <mergeCell ref="C193:C196"/>
@@ -7217,6 +7494,42 @@
     <mergeCell ref="B189:B190"/>
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="A169:H169"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="E182:E186"/>
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="A229:H229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="0" windowWidth="25605" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$G$269</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$G$271</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="487">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,10 +1483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同一内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固定。角度：从牢房拍摄到门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1566,31 +1562,6 @@
   </si>
   <si>
     <t>赵译惊诧，看着头目方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小弟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（结巴）【要么饿死，要么就溜跑，不要三心二意的】</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2473,12 +2444,24 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>屏幕正确显示出网页。搜索栏中打入了“狂战”“韦波”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张霸咬了咬牙，再次埋头输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2687,7 +2670,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2857,8 +2840,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2927,6 +2912,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2973,8 +2967,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="169">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="171">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3059,90 +3052,93 @@
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3470,34 +3466,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G269"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A217" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3522,13 +3518,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50.1" customHeight="1">
+    <row r="3" spans="1:7" ht="50" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -3561,24 +3557,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="57" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>272</v>
-      </c>
+      <c r="A6" s="29"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6" t="s">
@@ -3587,7 +3581,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -3604,12 +3598,12 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="60.75" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>271</v>
@@ -3618,13 +3612,13 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="72.95" customHeight="1">
+    <row r="9" spans="1:7" ht="73" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -3633,22 +3627,22 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="72.95" customHeight="1">
+    <row r="10" spans="1:7" ht="73" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="60.95" customHeight="1">
+    <row r="11" spans="1:7" ht="61" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
@@ -3657,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="57.95" customHeight="1">
+    <row r="12" spans="1:7" ht="58" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -3672,28 +3666,28 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="72.95" customHeight="1">
+    <row r="13" spans="1:7" ht="73" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="78.95" customHeight="1">
+    <row r="14" spans="1:7" ht="79" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>17</v>
@@ -3708,7 +3702,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="78.95" customHeight="1">
+    <row r="15" spans="1:7" ht="79" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>9</v>
@@ -3724,31 +3718,31 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>269</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="6"/>
@@ -3769,11 +3763,11 @@
     <row r="19" spans="1:7" ht="44.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3786,77 +3780,77 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="51.95" customHeight="1">
+    <row r="21" spans="1:7" ht="52" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3898,7 +3892,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3919,14 +3913,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="51.95" customHeight="1">
+    <row r="30" spans="1:7" ht="52" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>28</v>
@@ -3934,7 +3928,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="62.1" customHeight="1">
+    <row r="31" spans="1:7" ht="62" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -3947,13 +3941,13 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="54.95" customHeight="1">
+    <row r="32" spans="1:7" ht="55" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -3963,17 +3957,17 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" ht="60.95" customHeight="1">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" ht="61" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>31</v>
@@ -3986,22 +3980,22 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="60.95" customHeight="1">
+    <row r="35" spans="1:7" ht="61" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="53.1" customHeight="1">
+    <row r="36" spans="1:7" ht="53" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -4014,7 +4008,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="51.95" customHeight="1">
+    <row r="37" spans="1:7" ht="52" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
@@ -4026,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4063,7 +4057,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="53.1" customHeight="1">
+    <row r="40" spans="1:7" ht="53" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -4091,7 +4085,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="42" spans="1:7" ht="37" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>32</v>
@@ -4104,7 +4098,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="54.95" customHeight="1">
+    <row r="43" spans="1:7" ht="55" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>34</v>
@@ -4130,7 +4124,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="42.95" customHeight="1">
+    <row r="45" spans="1:7" ht="43" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -4143,7 +4137,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="65.099999999999994" customHeight="1">
+    <row r="46" spans="1:7" ht="65" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>32</v>
@@ -4153,12 +4147,12 @@
         <v>50</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="47" spans="1:7" ht="40" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>34</v>
@@ -4167,11 +4161,11 @@
       <c r="D47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="83.1" customHeight="1">
+    <row r="48" spans="1:7" ht="83" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>32</v>
@@ -4181,22 +4175,22 @@
         <v>151</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="56.1" customHeight="1">
+    <row r="49" spans="1:7" ht="56" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4214,7 +4208,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="56.1" customHeight="1">
+    <row r="51" spans="1:7" ht="56" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
         <v>32</v>
@@ -4244,7 +4238,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="57.95" customHeight="1">
+    <row r="53" spans="1:7" ht="58" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>56</v>
@@ -4304,7 +4298,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="59.1" customHeight="1">
+    <row r="57" spans="1:7" ht="59" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>56</v>
@@ -4321,7 +4315,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" ht="44.1" customHeight="1">
+    <row r="58" spans="1:7" ht="44" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>56</v>
@@ -4345,13 +4339,11 @@
       <c r="D59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="57.95" customHeight="1">
+    <row r="60" spans="1:7" ht="58" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>56</v>
@@ -4364,7 +4356,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" ht="74.099999999999994" customHeight="1">
+    <row r="61" spans="1:7" ht="74" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
         <v>68</v>
@@ -4379,7 +4371,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="62" spans="1:7" ht="40" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
         <v>70</v>
@@ -4388,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>71</v>
@@ -4396,7 +4388,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="50.1" customHeight="1">
+    <row r="63" spans="1:7" ht="50" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
         <v>56</v>
@@ -4411,7 +4403,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="83.1" customHeight="1">
+    <row r="64" spans="1:7" ht="83" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>56</v>
@@ -4428,18 +4420,18 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="45.95" customHeight="1">
-      <c r="A65" s="32" t="s">
+    <row r="65" spans="1:7" ht="46" customHeight="1">
+      <c r="A65" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34"/>
-    </row>
-    <row r="66" spans="1:7" ht="48.95" customHeight="1">
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
+    </row>
+    <row r="66" spans="1:7" ht="49" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -4454,7 +4446,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="67" spans="1:7" ht="40" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>82</v>
@@ -4467,7 +4459,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="68" spans="1:7" ht="37" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>82</v>
@@ -4480,7 +4472,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="45.95" customHeight="1">
+    <row r="69" spans="1:7" ht="46" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -4500,7 +4492,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>85</v>
@@ -4508,7 +4500,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="24.95" customHeight="1">
+    <row r="71" spans="1:7" ht="25" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>82</v>
@@ -4521,7 +4513,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="72" spans="1:7" ht="37" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>82</v>
@@ -4536,7 +4528,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="48.95" customHeight="1">
+    <row r="73" spans="1:7" ht="49" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>79</v>
@@ -4556,7 +4548,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>92</v>
@@ -4564,7 +4556,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" ht="66.95" customHeight="1">
+    <row r="75" spans="1:7" ht="67" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>95</v>
@@ -4579,14 +4571,14 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="66.95" customHeight="1">
+    <row r="76" spans="1:7" ht="67" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="13"/>
@@ -4616,7 +4608,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>100</v>
@@ -4631,7 +4623,7 @@
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -4657,22 +4649,22 @@
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A82" s="35" t="s">
+    <row r="82" spans="1:7" ht="50" customHeight="1">
+      <c r="A82" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3"/>
@@ -4687,7 +4679,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="23.1" customHeight="1">
+    <row r="84" spans="1:7" ht="23" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>102</v>
@@ -4716,11 +4708,11 @@
     <row r="86" spans="1:7" ht="27" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4729,11 +4721,11 @@
     <row r="87" spans="1:7" ht="27" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4742,25 +4734,25 @@
     <row r="88" spans="1:7" ht="27" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="36.950000000000003" customHeight="1">
-      <c r="A89" s="26" t="s">
-        <v>305</v>
+    <row r="89" spans="1:7" ht="37" customHeight="1">
+      <c r="A89" s="29" t="s">
+        <v>303</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>106</v>
@@ -4771,13 +4763,13 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A90" s="27"/>
+    <row r="90" spans="1:7" ht="31" customHeight="1">
+      <c r="A90" s="30"/>
       <c r="B90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>160</v>
@@ -4788,8 +4780,8 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A91" s="27"/>
+    <row r="91" spans="1:7" ht="34" customHeight="1">
+      <c r="A91" s="30"/>
       <c r="B91" s="3" t="s">
         <v>17</v>
       </c>
@@ -4803,13 +4795,13 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A92" s="28"/>
+    <row r="92" spans="1:7" ht="34" customHeight="1">
+      <c r="A92" s="31"/>
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>111</v>
@@ -4820,45 +4812,45 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="93" spans="1:7" ht="34" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="44.1" customHeight="1">
+    <row r="94" spans="1:7" ht="44" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="32.1" customHeight="1">
+    <row r="95" spans="1:7" ht="32" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4866,7 +4858,7 @@
     <row r="96" spans="1:7" ht="32.25" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
@@ -4876,7 +4868,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="29.1" customHeight="1">
+    <row r="97" spans="1:7" ht="29" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>102</v>
@@ -4889,7 +4881,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="38.1" customHeight="1">
+    <row r="98" spans="1:7" ht="38" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>102</v>
@@ -4923,18 +4915,18 @@
         <v>17</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="44.1" customHeight="1">
+    <row r="101" spans="1:7" ht="44" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>120</v>
@@ -4944,165 +4936,165 @@
         <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26" t="s">
+    <row r="102" spans="1:7" ht="44" customHeight="1">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" ht="66" customHeight="1">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" ht="66" customHeight="1">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" ht="66" customHeight="1">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="66" customHeight="1">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="107" spans="1:7" ht="34" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="108" spans="1:7" ht="34" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" ht="48" customHeight="1">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26" t="s">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" ht="48" customHeight="1">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="48" customHeight="1">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" ht="48" customHeight="1">
       <c r="A112" s="15"/>
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
@@ -5110,12 +5102,12 @@
     </row>
     <row r="113" spans="1:7" ht="48" customHeight="1">
       <c r="A113" s="15"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
@@ -5123,12 +5115,12 @@
     </row>
     <row r="114" spans="1:7" ht="48" customHeight="1">
       <c r="A114" s="15"/>
-      <c r="B114" s="28"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
@@ -5137,24 +5129,24 @@
     <row r="115" spans="1:7" ht="48" customHeight="1">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="44.1" customHeight="1">
+    <row r="116" spans="1:7" ht="44" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>126</v>
@@ -5162,22 +5154,22 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="117" spans="1:7" ht="37" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="44.1" customHeight="1">
+    <row r="118" spans="1:7" ht="44" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>102</v>
@@ -5190,7 +5182,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="27.95" customHeight="1">
+    <row r="119" spans="1:7" ht="28" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
         <v>102</v>
@@ -5200,14 +5192,14 @@
         <v>113</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26" t="s">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="3"/>
@@ -5215,33 +5207,33 @@
         <v>116</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
+      <c r="A122" s="31"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -5249,32 +5241,32 @@
     <row r="123" spans="1:7" ht="46.5" customHeight="1">
       <c r="A123" s="15"/>
       <c r="B123" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="24.95" customHeight="1">
+    <row r="124" spans="1:7" ht="25" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="30.95" customHeight="1">
+    <row r="125" spans="1:7" ht="31" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>122</v>
@@ -5289,7 +5281,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="30.95" customHeight="1">
+    <row r="126" spans="1:7" ht="31" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>122</v>
@@ -5321,7 +5313,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="27.95" customHeight="1">
+    <row r="128" spans="1:7" ht="28" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>134</v>
@@ -5338,20 +5330,20 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="44.1" customHeight="1">
+    <row r="129" spans="1:7" ht="44" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="24">
+    <row r="130" spans="1:7" ht="26">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>13</v>
@@ -5364,7 +5356,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="84.95" customHeight="1">
+    <row r="131" spans="1:7" ht="85" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>13</v>
@@ -5377,7 +5369,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="44.1" customHeight="1">
+    <row r="132" spans="1:7" ht="44" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>122</v>
@@ -5392,7 +5384,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="41.1" customHeight="1">
+    <row r="133" spans="1:7" ht="41" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>122</v>
@@ -5407,17 +5399,17 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="41.1" customHeight="1">
+    <row r="134" spans="1:7" ht="41" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5435,7 +5427,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="136" spans="1:7" ht="37" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>102</v>
@@ -5448,40 +5440,40 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A137" s="35" t="s">
+    <row r="137" spans="1:7" ht="44" customHeight="1">
+      <c r="A137" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="37"/>
-    </row>
-    <row r="138" spans="1:7" ht="44.1" customHeight="1">
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="40"/>
+    </row>
+    <row r="138" spans="1:7" ht="44" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="139" spans="1:7" ht="40" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5490,7 +5482,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="7"/>
       <c r="B140" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
@@ -5503,7 +5495,7 @@
     <row r="141" spans="1:7">
       <c r="A141" s="7"/>
       <c r="B141" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
@@ -5516,7 +5508,7 @@
     <row r="142" spans="1:7">
       <c r="A142" s="7"/>
       <c r="B142" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
@@ -5540,8 +5532,8 @@
       <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" ht="24" customHeight="1">
-      <c r="A144" s="29"/>
-      <c r="B144" s="26" t="s">
+      <c r="A144" s="32"/>
+      <c r="B144" s="29" t="s">
         <v>165</v>
       </c>
       <c r="C144" s="3"/>
@@ -5553,8 +5545,8 @@
       <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7" ht="24" customHeight="1">
-      <c r="A145" s="31"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
         <v>171</v>
@@ -5565,7 +5557,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="146" spans="1:7" ht="34" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="3" t="s">
         <v>167</v>
@@ -5580,7 +5572,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="147" spans="1:7" ht="40" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="3" t="s">
         <v>158</v>
@@ -5600,13 +5592,13 @@
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="50.1" customHeight="1">
+    <row r="149" spans="1:7" ht="50" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="3" t="s">
         <v>165</v>
@@ -5623,14 +5615,14 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="150" spans="1:7" ht="34" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -5664,20 +5656,20 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="24.95" customHeight="1">
+    <row r="153" spans="1:7" ht="25" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="24.95" customHeight="1">
+    <row r="154" spans="1:7" ht="25" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="3" t="s">
         <v>158</v>
@@ -5690,7 +5682,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="26">
       <c r="A155" s="7"/>
       <c r="B155" s="3" t="s">
         <v>158</v>
@@ -5714,21 +5706,21 @@
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="24">
+    <row r="157" spans="1:7" ht="26">
       <c r="A157" s="7"/>
       <c r="B157" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>182</v>
@@ -5745,10 +5737,10 @@
         <v>181</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -5860,7 +5852,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="96">
+    <row r="167" spans="1:7" ht="104">
       <c r="A167" s="7"/>
       <c r="B167" s="3" t="s">
         <v>180</v>
@@ -5873,7 +5865,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="36">
+    <row r="168" spans="1:7" ht="39">
       <c r="A168" s="7"/>
       <c r="B168" s="3" t="s">
         <v>177</v>
@@ -5895,7 +5887,7 @@
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>197</v>
@@ -5916,25 +5908,25 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A171" s="35" t="s">
+    <row r="171" spans="1:7" ht="50" customHeight="1">
+      <c r="A171" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="37"/>
-    </row>
-    <row r="172" spans="1:7" ht="15.95" customHeight="1">
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="40"/>
+    </row>
+    <row r="172" spans="1:7" ht="16" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
@@ -5968,7 +5960,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="26">
       <c r="A175" s="7"/>
       <c r="B175" s="3" t="s">
         <v>216</v>
@@ -5983,9 +5975,9 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="36">
-      <c r="A176" s="29"/>
-      <c r="B176" s="26" t="s">
+    <row r="176" spans="1:7" ht="39">
+      <c r="A176" s="32"/>
+      <c r="B176" s="29" t="s">
         <v>218</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -5995,23 +5987,23 @@
         <v>219</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
     <row r="177" spans="1:7" ht="33" customHeight="1">
-      <c r="A177" s="31"/>
-      <c r="B177" s="28"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="24">
+    <row r="178" spans="1:7" ht="26">
       <c r="A178" s="7"/>
       <c r="B178" s="3" t="s">
         <v>220</v>
@@ -6026,7 +6018,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="38.1" customHeight="1">
+    <row r="179" spans="1:7" ht="38" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="3" t="s">
         <v>221</v>
@@ -6054,7 +6046,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="36.950000000000003" customHeight="1">
+    <row r="181" spans="1:7" ht="37" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="3" t="s">
         <v>7</v>
@@ -6074,7 +6066,7 @@
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>210</v>
@@ -6082,7 +6074,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="21.95" customHeight="1">
+    <row r="183" spans="1:7" ht="22" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="3" t="s">
         <v>224</v>
@@ -6095,66 +6087,66 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A184" s="29"/>
-      <c r="B184" s="26" t="s">
+    <row r="184" spans="1:7" ht="32" customHeight="1">
+      <c r="A184" s="32"/>
+      <c r="B184" s="29" t="s">
         <v>226</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A185" s="30"/>
-      <c r="B185" s="27"/>
+    <row r="185" spans="1:7" ht="34" customHeight="1">
+      <c r="A185" s="33"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="18"/>
       <c r="D185" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A186" s="30"/>
-      <c r="B186" s="27"/>
+    <row r="186" spans="1:7" ht="35" customHeight="1">
+      <c r="A186" s="33"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="18"/>
       <c r="D186" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A187" s="30"/>
-      <c r="B187" s="27"/>
+    <row r="187" spans="1:7" ht="35" customHeight="1">
+      <c r="A187" s="33"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="18"/>
       <c r="D187" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A188" s="31"/>
-      <c r="B188" s="28"/>
+    <row r="188" spans="1:7" ht="35" customHeight="1">
+      <c r="A188" s="34"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="18"/>
       <c r="D188" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>211</v>
@@ -6162,139 +6154,139 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A189" s="29"/>
-      <c r="B189" s="26" t="s">
+    <row r="189" spans="1:7" ht="35" customHeight="1">
+      <c r="A189" s="32"/>
+      <c r="B189" s="29" t="s">
         <v>226</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A190" s="31"/>
-      <c r="B190" s="28"/>
+    <row r="190" spans="1:7" ht="35" customHeight="1">
+      <c r="A190" s="34"/>
+      <c r="B190" s="31"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A191" s="29"/>
-      <c r="B191" s="26" t="s">
+    <row r="191" spans="1:7" ht="35" customHeight="1">
+      <c r="A191" s="32"/>
+      <c r="B191" s="29" t="s">
         <v>224</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A192" s="31"/>
-      <c r="B192" s="28"/>
+    <row r="192" spans="1:7" ht="35" customHeight="1">
+      <c r="A192" s="34"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A193" s="29"/>
-      <c r="B193" s="26" t="s">
+    <row r="193" spans="1:7" ht="35" customHeight="1">
+      <c r="A193" s="32"/>
+      <c r="B193" s="29" t="s">
         <v>227</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A194" s="31"/>
-      <c r="B194" s="28"/>
+    <row r="194" spans="1:7" ht="35" customHeight="1">
+      <c r="A194" s="34"/>
+      <c r="B194" s="31"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A195" s="29"/>
-      <c r="B195" s="26" t="s">
+    <row r="195" spans="1:7" ht="35" customHeight="1">
+      <c r="A195" s="32"/>
+      <c r="B195" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C195" s="26"/>
+      <c r="C195" s="29"/>
       <c r="D195" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A196" s="30"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
+    <row r="196" spans="1:7" ht="35" customHeight="1">
+      <c r="A196" s="33"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
       <c r="D196" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A197" s="30"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
+    <row r="197" spans="1:7" ht="35" customHeight="1">
+      <c r="A197" s="33"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
       <c r="D197" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="48.95" customHeight="1">
-      <c r="A198" s="31"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
+    <row r="198" spans="1:7" ht="49" customHeight="1">
+      <c r="A198" s="34"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
       <c r="D198" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="32.1" customHeight="1">
+    <row r="199" spans="1:7" ht="32" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="3" t="s">
         <v>17</v>
@@ -6309,7 +6301,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="23.1" customHeight="1">
+    <row r="200" spans="1:7" ht="23" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="3" t="s">
         <v>9</v>
@@ -6322,7 +6314,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" ht="23.1" customHeight="1">
+    <row r="201" spans="1:7" ht="23" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="3" t="s">
         <v>9</v>
@@ -6335,7 +6327,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="23.1" customHeight="1">
+    <row r="202" spans="1:7" ht="23" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="3" t="s">
         <v>9</v>
@@ -6348,7 +6340,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="23.1" customHeight="1">
+    <row r="203" spans="1:7" ht="23" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="3" t="s">
         <v>17</v>
@@ -6374,114 +6366,114 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A205" s="35" t="s">
+    <row r="205" spans="1:7" ht="34" customHeight="1">
+      <c r="A205" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="37"/>
-    </row>
-    <row r="206" spans="1:7" ht="29.1" customHeight="1">
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="40"/>
+    </row>
+    <row r="206" spans="1:7" ht="29" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="29.1" customHeight="1">
+    <row r="207" spans="1:7" ht="29" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" ht="29.1" customHeight="1">
+    <row r="208" spans="1:7" ht="29" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C208" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="29.1" customHeight="1">
+    <row r="209" spans="1:7" ht="29" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="29.1" customHeight="1">
+    <row r="210" spans="1:7" ht="29" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="29.1" customHeight="1">
+    <row r="211" spans="1:7" ht="29" customHeight="1">
       <c r="A211" s="20"/>
       <c r="B211" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="24">
+    <row r="212" spans="1:7" ht="26">
       <c r="A212" s="20"/>
       <c r="B212" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -6489,225 +6481,223 @@
     <row r="213" spans="1:7" ht="24" customHeight="1">
       <c r="A213" s="23"/>
       <c r="B213" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="29.1" customHeight="1">
+    <row r="214" spans="1:7" ht="29" customHeight="1">
       <c r="A214" s="23"/>
       <c r="B214" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" ht="29.1" customHeight="1">
+    <row r="215" spans="1:7" ht="29" customHeight="1">
       <c r="A215" s="23"/>
       <c r="B215" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A216" s="29"/>
-      <c r="B216" s="26" t="s">
-        <v>349</v>
+    <row r="216" spans="1:7" ht="31" customHeight="1">
+      <c r="A216" s="32"/>
+      <c r="B216" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A217" s="30"/>
-      <c r="B217" s="27"/>
+    <row r="217" spans="1:7" ht="29" customHeight="1">
+      <c r="A217" s="33"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A218" s="31"/>
-      <c r="B218" s="28"/>
+    <row r="218" spans="1:7" ht="25" customHeight="1">
+      <c r="A218" s="34"/>
+      <c r="B218" s="31"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A219" s="29"/>
-      <c r="B219" s="26" t="s">
+    <row r="219" spans="1:7" ht="25" customHeight="1">
+      <c r="A219" s="32"/>
+      <c r="B219" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C219" s="26"/>
+      <c r="C219" s="29"/>
       <c r="D219" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A220" s="30"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
+    <row r="220" spans="1:7" ht="25" customHeight="1">
+      <c r="A220" s="33"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
       <c r="D220" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" ht="78.95" customHeight="1">
-      <c r="A221" s="31"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
+    <row r="221" spans="1:7" ht="54" customHeight="1">
+      <c r="A221" s="33"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
       <c r="D221" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="33" customHeight="1">
-      <c r="A222" s="7"/>
-      <c r="B222" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>411</v>
-      </c>
+    <row r="222" spans="1:7" ht="79" customHeight="1">
+      <c r="A222" s="34"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
       <c r="D222" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>410</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" ht="24">
-      <c r="A223" s="7"/>
-      <c r="B223" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C223" s="3"/>
+    <row r="223" spans="1:7" ht="40" customHeight="1">
+      <c r="A223" s="27"/>
+      <c r="B223" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C223" s="26"/>
       <c r="D223" s="3" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="33" customHeight="1">
       <c r="A224" s="7"/>
       <c r="B224" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C224" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="D224" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E224" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" ht="26">
       <c r="A225" s="7"/>
       <c r="B225" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E225" s="3"/>
-      <c r="F225" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="7"/>
       <c r="B226" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="24">
+    <row r="227" spans="1:7">
       <c r="A227" s="7"/>
       <c r="B227" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
+      <c r="F227" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="G227" s="3"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="7"/>
       <c r="B228" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C228" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="D228" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" ht="24">
+    <row r="229" spans="1:7" ht="26">
       <c r="A229" s="7"/>
       <c r="B229" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C229" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="D229" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -6716,98 +6706,98 @@
     <row r="230" spans="1:7">
       <c r="A230" s="7"/>
       <c r="B230" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" ht="77.099999999999994" customHeight="1">
-      <c r="A231" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="B231" s="36"/>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="37"/>
-    </row>
-    <row r="232" spans="1:7" ht="23.1" customHeight="1">
+    <row r="231" spans="1:7" ht="26">
+      <c r="A231" s="7"/>
+      <c r="B231" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="7"/>
       <c r="B232" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A233" s="29"/>
-      <c r="B233" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C233" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-    </row>
-    <row r="234" spans="1:7" ht="24">
-      <c r="A234" s="30"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
+    <row r="233" spans="1:7" ht="77" customHeight="1">
+      <c r="A233" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B233" s="39"/>
+      <c r="C233" s="39"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="39"/>
+      <c r="F233" s="39"/>
+      <c r="G233" s="40"/>
+    </row>
+    <row r="234" spans="1:7" ht="23" customHeight="1">
+      <c r="A234" s="7"/>
+      <c r="B234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
-        <v>424</v>
+        <v>256</v>
       </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" ht="24">
-      <c r="A235" s="31"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
+    <row r="235" spans="1:7" ht="19" customHeight="1">
+      <c r="A235" s="32"/>
+      <c r="B235" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>413</v>
+      </c>
       <c r="D235" s="3" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="7"/>
-      <c r="B236" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C236" s="3"/>
+    <row r="236" spans="1:7" ht="26">
+      <c r="A236" s="33"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
       <c r="D236" s="3" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="7"/>
-      <c r="B237" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" s="3"/>
+    <row r="237" spans="1:7" ht="26">
+      <c r="A237" s="34"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="3" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -6818,84 +6808,80 @@
       <c r="B238" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" ht="24">
+    <row r="239" spans="1:7">
       <c r="A239" s="7"/>
       <c r="B239" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="E239" s="3"/>
-      <c r="F239" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G239" s="7"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="7"/>
       <c r="B240" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="D240" s="3" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" ht="26">
       <c r="A241" s="7"/>
       <c r="B241" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>418</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
+      <c r="F241" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G241" s="7"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="7"/>
       <c r="B242" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>254</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="7"/>
       <c r="B243" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C243" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="D243" s="3" t="s">
-        <v>422</v>
+        <v>259</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
@@ -6904,24 +6890,28 @@
     <row r="244" spans="1:7">
       <c r="A244" s="7"/>
       <c r="B244" s="3" t="s">
-        <v>421</v>
+        <v>9</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" ht="24">
+    <row r="245" spans="1:7">
       <c r="A245" s="7"/>
       <c r="B245" s="3" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
@@ -6930,63 +6920,63 @@
     <row r="246" spans="1:7">
       <c r="A246" s="7"/>
       <c r="B246" s="3" t="s">
-        <v>9</v>
+        <v>419</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="24">
+    <row r="247" spans="1:7" ht="26">
       <c r="A247" s="7"/>
       <c r="B247" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="64.5" customHeight="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="7"/>
       <c r="B248" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="26">
       <c r="A249" s="7"/>
       <c r="B249" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="64.5" customHeight="1">
       <c r="A250" s="7"/>
       <c r="B250" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -6999,266 +6989,292 @@
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="7"/>
-    </row>
-    <row r="252" spans="1:7" ht="29.1" customHeight="1">
+      <c r="G251" s="3"/>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="7"/>
       <c r="B252" s="3" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="7"/>
-    </row>
-    <row r="253" spans="1:7" ht="29.1" customHeight="1">
+      <c r="G252" s="3"/>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="7"/>
       <c r="B253" s="3" t="s">
-        <v>421</v>
+        <v>9</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:7" ht="47.1" customHeight="1">
-      <c r="A254" s="29"/>
-      <c r="B254" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>430</v>
-      </c>
+    <row r="254" spans="1:7" ht="29" customHeight="1">
+      <c r="A254" s="7"/>
+      <c r="B254" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7" ht="29" customHeight="1">
+      <c r="A255" s="7"/>
+      <c r="B255" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="1:7" ht="47" customHeight="1">
+      <c r="A256" s="32"/>
+      <c r="B256" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-    </row>
-    <row r="255" spans="1:7" ht="47.1" customHeight="1">
-      <c r="A255" s="31"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-    </row>
-    <row r="256" spans="1:7" ht="47.1" customHeight="1">
-      <c r="A256" s="29"/>
-      <c r="B256" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="36">
-      <c r="A257" s="31"/>
-      <c r="B257" s="28"/>
+    <row r="257" spans="1:7" ht="47" customHeight="1">
+      <c r="A257" s="34"/>
+      <c r="B257" s="31"/>
       <c r="C257" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="77.099999999999994" customHeight="1">
-      <c r="A258" s="29"/>
-      <c r="B258" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="C258" s="3"/>
+    <row r="258" spans="1:7" ht="47" customHeight="1">
+      <c r="A258" s="32"/>
+      <c r="B258" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="D258" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F258" s="3"/>
-      <c r="G258" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="41.1" customHeight="1">
-      <c r="A259" s="30"/>
-      <c r="B259" s="27"/>
-      <c r="C259" s="3"/>
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="1:7" ht="52">
+      <c r="A259" s="34"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="D259" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A260" s="31"/>
-      <c r="B260" s="28"/>
+    <row r="260" spans="1:7" ht="77" customHeight="1">
+      <c r="A260" s="32"/>
+      <c r="B260" s="29" t="s">
+        <v>419</v>
+      </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="22"/>
-      <c r="B261" s="21" t="s">
-        <v>421</v>
-      </c>
+      <c r="G260" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="41" customHeight="1">
+      <c r="A261" s="33"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E261" s="3"/>
+        <v>431</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="7"/>
-      <c r="B262" s="3" t="s">
-        <v>421</v>
-      </c>
+    <row r="262" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A262" s="34"/>
+      <c r="B262" s="31"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" ht="24">
-      <c r="A263" s="29"/>
-      <c r="B263" s="26" t="s">
-        <v>421</v>
+    <row r="263" spans="1:7">
+      <c r="A263" s="22"/>
+      <c r="B263" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>450</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="30"/>
-      <c r="B264" s="27"/>
+      <c r="A264" s="7"/>
+      <c r="B264" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" ht="24">
-      <c r="A265" s="31"/>
-      <c r="B265" s="28"/>
+    <row r="265" spans="1:7" ht="26">
+      <c r="A265" s="32"/>
+      <c r="B265" s="29" t="s">
+        <v>419</v>
+      </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" ht="24">
-      <c r="A266" s="7"/>
-      <c r="B266" s="3" t="s">
-        <v>448</v>
-      </c>
+    <row r="266" spans="1:7">
+      <c r="A266" s="33"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="7"/>
-      <c r="B267" s="3" t="s">
-        <v>452</v>
-      </c>
+    <row r="267" spans="1:7" ht="26">
+      <c r="A267" s="34"/>
+      <c r="B267" s="31"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E267" s="3"/>
+        <v>449</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" ht="26">
       <c r="A268" s="7"/>
-      <c r="B268" s="3"/>
+      <c r="B268" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+      <c r="D268" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="7"/>
-      <c r="B269" s="3"/>
+      <c r="B269" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
+      <c r="D269" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="7"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="7"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A233:G233"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="C195:C198"/>
     <mergeCell ref="A184:A188"/>
@@ -7273,9 +7289,9 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="C219:C222"/>
     <mergeCell ref="B216:B218"/>
     <mergeCell ref="A216:A218"/>
     <mergeCell ref="B184:B188"/>
@@ -7301,18 +7317,18 @@
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B265:B267"/>
+    <mergeCell ref="A265:A267"/>
     <mergeCell ref="B256:B257"/>
     <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="A260:A262"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -10,7 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$G$271</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$G$270</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="487">
   <si>
     <t>镜号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1444,10 +1444,6 @@
   </si>
   <si>
     <t>张霸看了四周的人，捂着眼睛。忽然被屏幕上的一个地方吸引住，拿起鼠标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右下角的wifi显示“192.168.3.2”，连接上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2454,6 +2450,10 @@
   </si>
   <si>
     <t>张霸咬了咬牙，再次埋头输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【为何不使用你们那个虫子对公安网进行大规模的恶意访问，让他们怀疑嘛，一旦怀疑，他们就会查访问者的地址，不是吗？】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3467,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A217" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3486,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3524,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -3551,13 +3551,13 @@
     <row r="5" spans="1:7" ht="75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14"/>
@@ -3569,10 +3569,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6" t="s">
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -3603,10 +3603,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -3618,7 +3618,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -3630,13 +3630,13 @@
     <row r="10" spans="1:7" ht="73" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -3651,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -3666,7 +3666,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -3678,10 +3678,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -3723,13 +3723,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
@@ -3739,10 +3739,10 @@
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="6"/>
@@ -3763,11 +3763,11 @@
     <row r="19" spans="1:7" ht="44.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3792,10 +3792,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="6"/>
@@ -3821,10 +3821,10 @@
       <c r="B23" s="30"/>
       <c r="C23" s="42"/>
       <c r="D23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3834,10 +3834,10 @@
       <c r="B24" s="30"/>
       <c r="C24" s="42"/>
       <c r="D24" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3847,10 +3847,10 @@
       <c r="B25" s="31"/>
       <c r="C25" s="43"/>
       <c r="D25" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>28</v>
@@ -3947,7 +3947,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -3986,10 +3986,10 @@
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4020,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4147,7 +4147,7 @@
         <v>50</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4175,7 +4175,7 @@
         <v>151</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -4187,10 +4187,10 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4380,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>71</v>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>85</v>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>92</v>
@@ -4574,11 +4574,11 @@
     <row r="76" spans="1:7" ht="67" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="13"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>100</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
@@ -4708,11 +4708,11 @@
     <row r="86" spans="1:7" ht="27" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4721,11 +4721,11 @@
     <row r="87" spans="1:7" ht="27" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4734,11 +4734,11 @@
     <row r="88" spans="1:7" ht="27" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4746,13 +4746,13 @@
     </row>
     <row r="89" spans="1:7" ht="37" customHeight="1">
       <c r="A89" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>106</v>
@@ -4769,7 +4769,7 @@
         <v>17</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>160</v>
@@ -4801,7 +4801,7 @@
         <v>17</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>111</v>
@@ -4815,13 +4815,13 @@
     <row r="93" spans="1:7" ht="34" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4843,14 +4843,14 @@
     <row r="95" spans="1:7" ht="32" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4858,7 +4858,7 @@
     <row r="96" spans="1:7" ht="32.25" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
@@ -4915,13 +4915,13 @@
         <v>17</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4936,7 +4936,7 @@
         <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4947,13 +4947,13 @@
         <v>122</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4962,13 +4962,13 @@
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
       <c r="C103" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4977,13 +4977,13 @@
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4992,13 +4992,13 @@
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
       <c r="C105" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -5007,13 +5007,13 @@
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
@@ -5034,11 +5034,11 @@
     <row r="108" spans="1:7" ht="34" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
@@ -5051,10 +5051,10 @@
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5067,7 +5067,7 @@
         <v>124</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -5077,10 +5077,10 @@
       <c r="B111" s="31"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -5088,13 +5088,13 @@
     <row r="112" spans="1:7" ht="48" customHeight="1">
       <c r="A112" s="15"/>
       <c r="B112" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
@@ -5104,10 +5104,10 @@
       <c r="A113" s="15"/>
       <c r="B113" s="30"/>
       <c r="C113" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
@@ -5117,10 +5117,10 @@
       <c r="A114" s="15"/>
       <c r="B114" s="31"/>
       <c r="C114" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
@@ -5129,11 +5129,11 @@
     <row r="115" spans="1:7" ht="48" customHeight="1">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>126</v>
@@ -5161,10 +5161,10 @@
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -5192,7 +5192,7 @@
         <v>113</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -5207,7 +5207,7 @@
         <v>116</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -5217,10 +5217,10 @@
       <c r="B121" s="30"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -5233,7 +5233,7 @@
         <v>116</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -5241,11 +5241,11 @@
     <row r="123" spans="1:7" ht="46.5" customHeight="1">
       <c r="A123" s="15"/>
       <c r="B123" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
@@ -5258,10 +5258,10 @@
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -5406,10 +5406,10 @@
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5457,10 +5457,10 @@
         <v>7</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5482,7 +5482,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="7"/>
       <c r="B140" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
@@ -5495,7 +5495,7 @@
     <row r="141" spans="1:7">
       <c r="A141" s="7"/>
       <c r="B141" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
@@ -5508,7 +5508,7 @@
     <row r="142" spans="1:7">
       <c r="A142" s="7"/>
       <c r="B142" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G156" s="3"/>
     </row>
@@ -5720,7 +5720,7 @@
         <v>181</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>182</v>
@@ -5737,10 +5737,10 @@
         <v>181</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>197</v>
@@ -5922,11 +5922,11 @@
     <row r="172" spans="1:7" ht="16" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
@@ -5987,7 +5987,7 @@
         <v>219</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -5997,7 +5997,7 @@
       <c r="B177" s="31"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>210</v>
@@ -6093,13 +6093,13 @@
         <v>226</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -6109,10 +6109,10 @@
       <c r="B185" s="30"/>
       <c r="C185" s="18"/>
       <c r="D185" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -6122,7 +6122,7 @@
       <c r="B186" s="30"/>
       <c r="C186" s="18"/>
       <c r="D186" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -6133,10 +6133,10 @@
       <c r="B187" s="30"/>
       <c r="C187" s="18"/>
       <c r="D187" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -6146,7 +6146,7 @@
       <c r="B188" s="31"/>
       <c r="C188" s="18"/>
       <c r="D188" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>211</v>
@@ -6161,10 +6161,10 @@
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -6174,7 +6174,7 @@
       <c r="B190" s="31"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -6187,10 +6187,10 @@
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -6199,13 +6199,13 @@
       <c r="A192" s="34"/>
       <c r="B192" s="31"/>
       <c r="C192" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D192" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -6228,7 +6228,7 @@
       <c r="B194" s="31"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -6241,10 +6241,10 @@
       </c>
       <c r="C195" s="29"/>
       <c r="D195" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -6254,10 +6254,10 @@
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
       <c r="D196" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -6267,10 +6267,10 @@
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
       <c r="D197" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -6280,7 +6280,7 @@
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
       <c r="D198" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -6393,11 +6393,11 @@
     <row r="207" spans="1:7" ht="29" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -6406,16 +6406,16 @@
     <row r="208" spans="1:7" ht="29" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="D208" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -6423,14 +6423,14 @@
     <row r="209" spans="1:7" ht="29" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -6438,11 +6438,11 @@
     <row r="210" spans="1:7" ht="29" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -6455,10 +6455,10 @@
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -6470,10 +6470,10 @@
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -6481,11 +6481,11 @@
     <row r="213" spans="1:7" ht="24" customHeight="1">
       <c r="A213" s="23"/>
       <c r="B213" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -6494,11 +6494,11 @@
     <row r="214" spans="1:7" ht="29" customHeight="1">
       <c r="A214" s="23"/>
       <c r="B214" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -6507,11 +6507,11 @@
     <row r="215" spans="1:7" ht="29" customHeight="1">
       <c r="A215" s="23"/>
       <c r="B215" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -6520,14 +6520,14 @@
     <row r="216" spans="1:7" ht="31" customHeight="1">
       <c r="A216" s="32"/>
       <c r="B216" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -6537,7 +6537,7 @@
       <c r="B217" s="30"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -6548,7 +6548,7 @@
       <c r="B218" s="31"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -6572,7 +6572,7 @@
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
       <c r="D220" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -6583,7 +6583,7 @@
       <c r="B221" s="30"/>
       <c r="C221" s="30"/>
       <c r="D221" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -6594,7 +6594,7 @@
       <c r="B222" s="31"/>
       <c r="C222" s="31"/>
       <c r="D222" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -6603,11 +6603,11 @@
     <row r="223" spans="1:7" ht="40" customHeight="1">
       <c r="A223" s="27"/>
       <c r="B223" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C223" s="26"/>
       <c r="D223" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -6619,13 +6619,13 @@
         <v>241</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="E224" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -6772,10 +6772,10 @@
         <v>17</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -6786,7 +6786,7 @@
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
       <c r="D236" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -6797,7 +6797,7 @@
       <c r="B237" s="31"/>
       <c r="C237" s="31"/>
       <c r="D237" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
@@ -6835,7 +6835,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>252</v>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
@@ -6878,7 +6878,7 @@
         <v>17</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>259</v>
@@ -6907,11 +6907,11 @@
     <row r="245" spans="1:7">
       <c r="A245" s="7"/>
       <c r="B245" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
@@ -6920,11 +6920,11 @@
     <row r="246" spans="1:7">
       <c r="A246" s="7"/>
       <c r="B246" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
@@ -7006,16 +7006,16 @@
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="1:7" ht="29" customHeight="1">
       <c r="A253" s="7"/>
       <c r="B253" s="3" t="s">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
@@ -7024,7 +7024,7 @@
     <row r="254" spans="1:7" ht="29" customHeight="1">
       <c r="A254" s="7"/>
       <c r="B254" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
@@ -7034,44 +7034,48 @@
       <c r="F254" s="3"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:7" ht="29" customHeight="1">
-      <c r="A255" s="7"/>
-      <c r="B255" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C255" s="3"/>
+    <row r="255" spans="1:7" ht="47" customHeight="1">
+      <c r="A255" s="32"/>
+      <c r="B255" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="D255" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E255" s="3"/>
+      <c r="E255" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="F255" s="3"/>
-      <c r="G255" s="7"/>
+      <c r="G255" s="3"/>
     </row>
     <row r="256" spans="1:7" ht="47" customHeight="1">
-      <c r="A256" s="32"/>
-      <c r="B256" s="29" t="s">
-        <v>419</v>
-      </c>
+      <c r="A256" s="34"/>
+      <c r="B256" s="31"/>
       <c r="C256" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
     <row r="257" spans="1:7" ht="47" customHeight="1">
-      <c r="A257" s="34"/>
-      <c r="B257" s="31"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="29" t="s">
+        <v>418</v>
+      </c>
       <c r="C257" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>436</v>
@@ -7079,174 +7083,166 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="47" customHeight="1">
-      <c r="A258" s="32"/>
-      <c r="B258" s="29" t="s">
-        <v>419</v>
-      </c>
+    <row r="258" spans="1:7" ht="52">
+      <c r="A258" s="34"/>
+      <c r="B258" s="31"/>
       <c r="C258" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" ht="52">
-      <c r="A259" s="34"/>
-      <c r="B259" s="31"/>
-      <c r="C259" s="3" t="s">
-        <v>428</v>
-      </c>
+    <row r="259" spans="1:7" ht="77" customHeight="1">
+      <c r="A259" s="32"/>
+      <c r="B259" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
         <v>430</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-    </row>
-    <row r="260" spans="1:7" ht="77" customHeight="1">
-      <c r="A260" s="32"/>
-      <c r="B260" s="29" t="s">
-        <v>419</v>
-      </c>
+      <c r="G259" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="41" customHeight="1">
+      <c r="A260" s="33"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>438</v>
       </c>
       <c r="F260" s="3"/>
-      <c r="G260" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="41" customHeight="1">
-      <c r="A261" s="33"/>
-      <c r="B261" s="30"/>
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A261" s="34"/>
+      <c r="B261" s="31"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E261" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A262" s="34"/>
-      <c r="B262" s="31"/>
+    <row r="262" spans="1:7">
+      <c r="A262" s="22"/>
+      <c r="B262" s="21" t="s">
+        <v>418</v>
+      </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E262" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="22"/>
-      <c r="B263" s="21" t="s">
-        <v>419</v>
+      <c r="A263" s="7"/>
+      <c r="B263" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E263" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="7"/>
-      <c r="B264" s="3" t="s">
-        <v>419</v>
+    <row r="264" spans="1:7" ht="26">
+      <c r="A264" s="32"/>
+      <c r="B264" s="29" t="s">
+        <v>418</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" ht="26">
-      <c r="A265" s="32"/>
-      <c r="B265" s="29" t="s">
-        <v>419</v>
-      </c>
+    <row r="265" spans="1:7">
+      <c r="A265" s="33"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="33"/>
-      <c r="B266" s="30"/>
+    <row r="266" spans="1:7" ht="26">
+      <c r="A266" s="34"/>
+      <c r="B266" s="31"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" ht="26">
-      <c r="A267" s="34"/>
-      <c r="B267" s="31"/>
+      <c r="A267" s="7"/>
+      <c r="B267" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" ht="26">
+    <row r="268" spans="1:7">
       <c r="A268" s="7"/>
       <c r="B268" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>443</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="7"/>
-      <c r="B269" s="3" t="s">
-        <v>450</v>
-      </c>
+      <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="3" t="s">
-        <v>451</v>
-      </c>
+      <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -7259,15 +7255,6 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="7"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -7317,14 +7304,14 @@
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B265:B267"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2460,8 +2460,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2940,15 +2940,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2966,8 +2957,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="171">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3053,92 +3054,91 @@
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3466,34 +3466,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3518,7 +3518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50" customHeight="1">
+    <row r="3" spans="1:7" ht="50.1" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -3612,7 +3612,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="73" customHeight="1">
+    <row r="9" spans="1:7" ht="72.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -3627,7 +3627,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="73" customHeight="1">
+    <row r="10" spans="1:7" ht="72.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>274</v>
@@ -3642,7 +3642,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="61" customHeight="1">
+    <row r="11" spans="1:7" ht="60.95" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
@@ -3657,7 +3657,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="58" customHeight="1">
+    <row r="12" spans="1:7" ht="57.95" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -3672,7 +3672,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="73" customHeight="1">
+    <row r="13" spans="1:7" ht="72.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -3687,7 +3687,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="79" customHeight="1">
+    <row r="14" spans="1:7" ht="78.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>17</v>
@@ -3702,7 +3702,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="79" customHeight="1">
+    <row r="15" spans="1:7" ht="78.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>9</v>
@@ -3786,7 +3786,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="52" customHeight="1">
+    <row r="21" spans="1:7" ht="51.95" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
@@ -3806,7 +3806,7 @@
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3"/>
@@ -3819,7 +3819,7 @@
     <row r="23" spans="1:7" ht="44.25" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="3" t="s">
         <v>287</v>
       </c>
@@ -3832,7 +3832,7 @@
     <row r="24" spans="1:7" ht="38.25" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="3" t="s">
         <v>282</v>
       </c>
@@ -3845,7 +3845,7 @@
     <row r="25" spans="1:7" ht="40.5" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="43"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="3" t="s">
         <v>285</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="52" customHeight="1">
+    <row r="30" spans="1:7" ht="51.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -3928,7 +3928,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="62" customHeight="1">
+    <row r="31" spans="1:7" ht="62.1" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -3941,7 +3941,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="55" customHeight="1">
+    <row r="32" spans="1:7" ht="54.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -3957,17 +3957,17 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" ht="61" customHeight="1">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" ht="60.95" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>31</v>
@@ -3980,7 +3980,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="61" customHeight="1">
+    <row r="35" spans="1:7" ht="60.95" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -3995,7 +3995,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="53" customHeight="1">
+    <row r="36" spans="1:7" ht="53.1" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -4008,7 +4008,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="52" customHeight="1">
+    <row r="37" spans="1:7" ht="51.95" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
@@ -4057,7 +4057,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="53" customHeight="1">
+    <row r="40" spans="1:7" ht="53.1" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -4085,7 +4085,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="37" customHeight="1">
+    <row r="42" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>32</v>
@@ -4098,7 +4098,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="55" customHeight="1">
+    <row r="43" spans="1:7" ht="54.95" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>34</v>
@@ -4124,7 +4124,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="43" customHeight="1">
+    <row r="45" spans="1:7" ht="42.95" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -4137,7 +4137,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="65" customHeight="1">
+    <row r="46" spans="1:7" ht="65.099999999999994" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>32</v>
@@ -4152,7 +4152,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="40" customHeight="1">
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>34</v>
@@ -4165,7 +4165,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="83" customHeight="1">
+    <row r="48" spans="1:7" ht="83.1" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>32</v>
@@ -4180,7 +4180,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="56" customHeight="1">
+    <row r="49" spans="1:7" ht="56.1" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>17</v>
@@ -4208,7 +4208,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="56" customHeight="1">
+    <row r="51" spans="1:7" ht="56.1" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
         <v>32</v>
@@ -4238,7 +4238,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="58" customHeight="1">
+    <row r="53" spans="1:7" ht="57.95" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>56</v>
@@ -4298,7 +4298,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="59" customHeight="1">
+    <row r="57" spans="1:7" ht="59.1" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>56</v>
@@ -4315,7 +4315,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" ht="44" customHeight="1">
+    <row r="58" spans="1:7" ht="44.1" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>56</v>
@@ -4343,7 +4343,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="58" customHeight="1">
+    <row r="60" spans="1:7" ht="57.95" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>56</v>
@@ -4356,7 +4356,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" ht="74" customHeight="1">
+    <row r="61" spans="1:7" ht="74.099999999999994" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
         <v>68</v>
@@ -4371,7 +4371,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="40" customHeight="1">
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
         <v>70</v>
@@ -4388,7 +4388,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="50" customHeight="1">
+    <row r="63" spans="1:7" ht="50.1" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
         <v>56</v>
@@ -4403,7 +4403,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="83" customHeight="1">
+    <row r="64" spans="1:7" ht="83.1" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>56</v>
@@ -4420,18 +4420,18 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="46" customHeight="1">
-      <c r="A65" s="35" t="s">
+    <row r="65" spans="1:7" ht="45.95" customHeight="1">
+      <c r="A65" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-    </row>
-    <row r="66" spans="1:7" ht="49" customHeight="1">
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+    </row>
+    <row r="66" spans="1:7" ht="48.95" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -4446,7 +4446,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="40" customHeight="1">
+    <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>82</v>
@@ -4459,7 +4459,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="37" customHeight="1">
+    <row r="68" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>82</v>
@@ -4472,7 +4472,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="46" customHeight="1">
+    <row r="69" spans="1:7" ht="45.95" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -4500,7 +4500,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="25" customHeight="1">
+    <row r="71" spans="1:7" ht="24.95" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>82</v>
@@ -4513,7 +4513,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="37" customHeight="1">
+    <row r="72" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>82</v>
@@ -4528,7 +4528,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="49" customHeight="1">
+    <row r="73" spans="1:7" ht="48.95" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>79</v>
@@ -4556,7 +4556,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" ht="67" customHeight="1">
+    <row r="75" spans="1:7" ht="66.95" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>95</v>
@@ -4571,7 +4571,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="67" customHeight="1">
+    <row r="76" spans="1:7" ht="66.95" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>296</v>
@@ -4655,16 +4655,16 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="1:7" ht="50" customHeight="1">
-      <c r="A82" s="38" t="s">
+    <row r="82" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A82" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="40"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37"/>
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3"/>
@@ -4679,7 +4679,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="23" customHeight="1">
+    <row r="84" spans="1:7" ht="23.1" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>102</v>
@@ -4744,7 +4744,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="37" customHeight="1">
+    <row r="89" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A89" s="29" t="s">
         <v>302</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="31" customHeight="1">
+    <row r="90" spans="1:7" ht="30.95" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="3" t="s">
         <v>17</v>
@@ -4780,7 +4780,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="34" customHeight="1">
+    <row r="91" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -4795,7 +4795,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="34" customHeight="1">
+    <row r="92" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A92" s="31"/>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -4812,7 +4812,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="34" customHeight="1">
+    <row r="93" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="3" t="s">
         <v>467</v>
@@ -4827,7 +4827,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="44" customHeight="1">
+    <row r="94" spans="1:7" ht="44.1" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>17</v>
@@ -4840,7 +4840,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="32" customHeight="1">
+    <row r="95" spans="1:7" ht="32.1" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>273</v>
@@ -4868,7 +4868,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="29" customHeight="1">
+    <row r="97" spans="1:7" ht="29.1" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>102</v>
@@ -4881,7 +4881,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="38" customHeight="1">
+    <row r="98" spans="1:7" ht="38.1" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>102</v>
@@ -4926,7 +4926,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="44" customHeight="1">
+    <row r="101" spans="1:7" ht="44.1" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>120</v>
@@ -4941,7 +4941,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="44" customHeight="1">
+    <row r="102" spans="1:7" ht="44.1" customHeight="1">
       <c r="A102" s="29"/>
       <c r="B102" s="29" t="s">
         <v>122</v>
@@ -5018,7 +5018,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="34" customHeight="1">
+    <row r="107" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>102</v>
@@ -5031,7 +5031,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="34" customHeight="1">
+    <row r="108" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
         <v>296</v>
@@ -5139,7 +5139,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="44" customHeight="1">
+    <row r="116" spans="1:7" ht="44.1" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>125</v>
@@ -5154,7 +5154,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="37" customHeight="1">
+    <row r="117" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>102</v>
@@ -5169,7 +5169,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="44" customHeight="1">
+    <row r="118" spans="1:7" ht="44.1" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>102</v>
@@ -5182,7 +5182,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="28" customHeight="1">
+    <row r="119" spans="1:7" ht="27.95" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
         <v>102</v>
@@ -5251,7 +5251,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="25" customHeight="1">
+    <row r="124" spans="1:7" ht="24.95" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>117</v>
@@ -5266,7 +5266,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="31" customHeight="1">
+    <row r="125" spans="1:7" ht="30.95" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>122</v>
@@ -5281,7 +5281,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="31" customHeight="1">
+    <row r="126" spans="1:7" ht="30.95" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>122</v>
@@ -5313,7 +5313,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="28" customHeight="1">
+    <row r="128" spans="1:7" ht="27.95" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>134</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="44" customHeight="1">
+    <row r="129" spans="1:7" ht="44.1" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>13</v>
@@ -5343,7 +5343,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="26">
+    <row r="130" spans="1:7" ht="24">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>13</v>
@@ -5356,7 +5356,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="85" customHeight="1">
+    <row r="131" spans="1:7" ht="84.95" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>13</v>
@@ -5369,7 +5369,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="44" customHeight="1">
+    <row r="132" spans="1:7" ht="44.1" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>122</v>
@@ -5384,7 +5384,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="41" customHeight="1">
+    <row r="133" spans="1:7" ht="41.1" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>122</v>
@@ -5399,7 +5399,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="41" customHeight="1">
+    <row r="134" spans="1:7" ht="41.1" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>17</v>
@@ -5427,7 +5427,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="37" customHeight="1">
+    <row r="136" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>102</v>
@@ -5440,18 +5440,18 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="44" customHeight="1">
-      <c r="A137" s="38" t="s">
+    <row r="137" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A137" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="40"/>
-    </row>
-    <row r="138" spans="1:7" ht="44" customHeight="1">
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="37"/>
+    </row>
+    <row r="138" spans="1:7" ht="44.1" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="3" t="s">
         <v>7</v>
@@ -5466,7 +5466,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" ht="40" customHeight="1">
+    <row r="139" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="3" t="s">
         <v>159</v>
@@ -5557,7 +5557,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="34" customHeight="1">
+    <row r="146" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="3" t="s">
         <v>167</v>
@@ -5572,7 +5572,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="40" customHeight="1">
+    <row r="147" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="3" t="s">
         <v>158</v>
@@ -5598,7 +5598,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="50" customHeight="1">
+    <row r="149" spans="1:7" ht="50.1" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="3" t="s">
         <v>165</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="34" customHeight="1">
+    <row r="150" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="3" t="s">
         <v>165</v>
@@ -5656,7 +5656,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="25" customHeight="1">
+    <row r="153" spans="1:7" ht="24.95" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="3" t="s">
         <v>165</v>
@@ -5669,7 +5669,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="25" customHeight="1">
+    <row r="154" spans="1:7" ht="24.95" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="3" t="s">
         <v>158</v>
@@ -5682,7 +5682,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="26">
+    <row r="155" spans="1:7">
       <c r="A155" s="7"/>
       <c r="B155" s="3" t="s">
         <v>158</v>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="26">
+    <row r="157" spans="1:7" ht="24">
       <c r="A157" s="7"/>
       <c r="B157" s="3" t="s">
         <v>181</v>
@@ -5852,7 +5852,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="104">
+    <row r="167" spans="1:7" ht="96">
       <c r="A167" s="7"/>
       <c r="B167" s="3" t="s">
         <v>180</v>
@@ -5865,7 +5865,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="39">
+    <row r="168" spans="1:7" ht="36">
       <c r="A168" s="7"/>
       <c r="B168" s="3" t="s">
         <v>177</v>
@@ -5908,18 +5908,18 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="38" t="s">
+    <row r="171" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A171" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="40"/>
-    </row>
-    <row r="172" spans="1:7" ht="16" customHeight="1">
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="37"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.95" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="3" t="s">
         <v>357</v>
@@ -5960,7 +5960,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="26">
+    <row r="175" spans="1:7">
       <c r="A175" s="7"/>
       <c r="B175" s="3" t="s">
         <v>216</v>
@@ -5975,7 +5975,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="39">
+    <row r="176" spans="1:7" ht="36">
       <c r="A176" s="32"/>
       <c r="B176" s="29" t="s">
         <v>218</v>
@@ -6003,7 +6003,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="26">
+    <row r="178" spans="1:7" ht="24">
       <c r="A178" s="7"/>
       <c r="B178" s="3" t="s">
         <v>220</v>
@@ -6018,7 +6018,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="38" customHeight="1">
+    <row r="179" spans="1:7" ht="38.1" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="3" t="s">
         <v>221</v>
@@ -6046,7 +6046,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="37" customHeight="1">
+    <row r="181" spans="1:7" ht="36.950000000000003" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="3" t="s">
         <v>7</v>
@@ -6074,7 +6074,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="22" customHeight="1">
+    <row r="183" spans="1:7" ht="21.95" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="3" t="s">
         <v>224</v>
@@ -6087,7 +6087,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="32" customHeight="1">
+    <row r="184" spans="1:7" ht="32.1" customHeight="1">
       <c r="A184" s="32"/>
       <c r="B184" s="29" t="s">
         <v>226</v>
@@ -6104,7 +6104,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="34" customHeight="1">
+    <row r="185" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A185" s="33"/>
       <c r="B185" s="30"/>
       <c r="C185" s="18"/>
@@ -6117,7 +6117,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="35" customHeight="1">
+    <row r="186" spans="1:7" ht="35.1" customHeight="1">
       <c r="A186" s="33"/>
       <c r="B186" s="30"/>
       <c r="C186" s="18"/>
@@ -6128,7 +6128,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="35" customHeight="1">
+    <row r="187" spans="1:7" ht="35.1" customHeight="1">
       <c r="A187" s="33"/>
       <c r="B187" s="30"/>
       <c r="C187" s="18"/>
@@ -6141,7 +6141,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" ht="35" customHeight="1">
+    <row r="188" spans="1:7" ht="35.1" customHeight="1">
       <c r="A188" s="34"/>
       <c r="B188" s="31"/>
       <c r="C188" s="18"/>
@@ -6154,7 +6154,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" ht="35" customHeight="1">
+    <row r="189" spans="1:7" ht="35.1" customHeight="1">
       <c r="A189" s="32"/>
       <c r="B189" s="29" t="s">
         <v>226</v>
@@ -6169,7 +6169,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" ht="35" customHeight="1">
+    <row r="190" spans="1:7" ht="35.1" customHeight="1">
       <c r="A190" s="34"/>
       <c r="B190" s="31"/>
       <c r="C190" s="3"/>
@@ -6180,7 +6180,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" ht="35" customHeight="1">
+    <row r="191" spans="1:7" ht="35.1" customHeight="1">
       <c r="A191" s="32"/>
       <c r="B191" s="29" t="s">
         <v>224</v>
@@ -6195,7 +6195,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" ht="35" customHeight="1">
+    <row r="192" spans="1:7" ht="35.1" customHeight="1">
       <c r="A192" s="34"/>
       <c r="B192" s="31"/>
       <c r="C192" s="3" t="s">
@@ -6210,7 +6210,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="35" customHeight="1">
+    <row r="193" spans="1:7" ht="35.1" customHeight="1">
       <c r="A193" s="32"/>
       <c r="B193" s="29" t="s">
         <v>227</v>
@@ -6223,7 +6223,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="35" customHeight="1">
+    <row r="194" spans="1:7" ht="35.1" customHeight="1">
       <c r="A194" s="34"/>
       <c r="B194" s="31"/>
       <c r="C194" s="3"/>
@@ -6234,7 +6234,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" ht="35" customHeight="1">
+    <row r="195" spans="1:7" ht="35.1" customHeight="1">
       <c r="A195" s="32"/>
       <c r="B195" s="29" t="s">
         <v>226</v>
@@ -6249,7 +6249,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="35" customHeight="1">
+    <row r="196" spans="1:7" ht="35.1" customHeight="1">
       <c r="A196" s="33"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -6262,7 +6262,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="35" customHeight="1">
+    <row r="197" spans="1:7" ht="35.1" customHeight="1">
       <c r="A197" s="33"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -6275,7 +6275,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="49" customHeight="1">
+    <row r="198" spans="1:7" ht="48.95" customHeight="1">
       <c r="A198" s="34"/>
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
@@ -6286,7 +6286,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="32" customHeight="1">
+    <row r="199" spans="1:7" ht="32.1" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="3" t="s">
         <v>17</v>
@@ -6301,7 +6301,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="23" customHeight="1">
+    <row r="200" spans="1:7" ht="23.1" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="3" t="s">
         <v>9</v>
@@ -6314,7 +6314,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" ht="23" customHeight="1">
+    <row r="201" spans="1:7" ht="23.1" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="3" t="s">
         <v>9</v>
@@ -6327,7 +6327,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="23" customHeight="1">
+    <row r="202" spans="1:7" ht="23.1" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="3" t="s">
         <v>9</v>
@@ -6340,7 +6340,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="23" customHeight="1">
+    <row r="203" spans="1:7" ht="23.1" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="3" t="s">
         <v>17</v>
@@ -6366,18 +6366,18 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" ht="34" customHeight="1">
-      <c r="A205" s="38" t="s">
+    <row r="205" spans="1:7" ht="33.950000000000003" customHeight="1">
+      <c r="A205" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="40"/>
-    </row>
-    <row r="206" spans="1:7" ht="29" customHeight="1">
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="37"/>
+    </row>
+    <row r="206" spans="1:7" ht="29.1" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="3" t="s">
         <v>239</v>
@@ -6390,7 +6390,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="29" customHeight="1">
+    <row r="207" spans="1:7" ht="29.1" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="3" t="s">
         <v>380</v>
@@ -6403,7 +6403,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" ht="29" customHeight="1">
+    <row r="208" spans="1:7" ht="29.1" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="3" t="s">
         <v>395</v>
@@ -6420,7 +6420,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="29" customHeight="1">
+    <row r="209" spans="1:7" ht="29.1" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="3" t="s">
         <v>380</v>
@@ -6435,7 +6435,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="29" customHeight="1">
+    <row r="210" spans="1:7" ht="29.1" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="3" t="s">
         <v>356</v>
@@ -6448,7 +6448,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="29" customHeight="1">
+    <row r="211" spans="1:7" ht="29.1" customHeight="1">
       <c r="A211" s="20"/>
       <c r="B211" s="3" t="s">
         <v>17</v>
@@ -6463,7 +6463,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="26">
+    <row r="212" spans="1:7" ht="24">
       <c r="A212" s="20"/>
       <c r="B212" s="3" t="s">
         <v>17</v>
@@ -6491,7 +6491,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="29" customHeight="1">
+    <row r="214" spans="1:7" ht="29.1" customHeight="1">
       <c r="A214" s="23"/>
       <c r="B214" s="19" t="s">
         <v>401</v>
@@ -6504,7 +6504,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" ht="29" customHeight="1">
+    <row r="215" spans="1:7" ht="29.1" customHeight="1">
       <c r="A215" s="23"/>
       <c r="B215" s="19" t="s">
         <v>403</v>
@@ -6517,7 +6517,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" ht="31" customHeight="1">
+    <row r="216" spans="1:7" ht="30.95" customHeight="1">
       <c r="A216" s="32"/>
       <c r="B216" s="29" t="s">
         <v>346</v>
@@ -6532,7 +6532,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" ht="29" customHeight="1">
+    <row r="217" spans="1:7" ht="29.1" customHeight="1">
       <c r="A217" s="33"/>
       <c r="B217" s="30"/>
       <c r="C217" s="3"/>
@@ -6543,7 +6543,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" ht="25" customHeight="1">
+    <row r="218" spans="1:7" ht="24.95" customHeight="1">
       <c r="A218" s="34"/>
       <c r="B218" s="31"/>
       <c r="C218" s="3"/>
@@ -6554,7 +6554,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" ht="25" customHeight="1">
+    <row r="219" spans="1:7" ht="24.95" customHeight="1">
       <c r="A219" s="32"/>
       <c r="B219" s="29" t="s">
         <v>240</v>
@@ -6567,7 +6567,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" ht="25" customHeight="1">
+    <row r="220" spans="1:7" ht="24.95" customHeight="1">
       <c r="A220" s="33"/>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
@@ -6589,7 +6589,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="79" customHeight="1">
+    <row r="222" spans="1:7" ht="78.95" customHeight="1">
       <c r="A222" s="34"/>
       <c r="B222" s="31"/>
       <c r="C222" s="31"/>
@@ -6600,7 +6600,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" ht="40" customHeight="1">
+    <row r="223" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A223" s="27"/>
       <c r="B223" s="26" t="s">
         <v>484</v>
@@ -6630,7 +6630,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" ht="26">
+    <row r="225" spans="1:7" ht="24">
       <c r="A225" s="7"/>
       <c r="B225" s="3" t="s">
         <v>242</v>
@@ -6688,7 +6688,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" ht="26">
+    <row r="229" spans="1:7" ht="24">
       <c r="A229" s="7"/>
       <c r="B229" s="3" t="s">
         <v>241</v>
@@ -6716,7 +6716,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" ht="26">
+    <row r="231" spans="1:7" ht="24">
       <c r="A231" s="7"/>
       <c r="B231" s="3" t="s">
         <v>17</v>
@@ -6742,18 +6742,18 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" ht="77" customHeight="1">
-      <c r="A233" s="38" t="s">
+    <row r="233" spans="1:7" ht="77.099999999999994" customHeight="1">
+      <c r="A233" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-      <c r="F233" s="39"/>
-      <c r="G233" s="40"/>
-    </row>
-    <row r="234" spans="1:7" ht="23" customHeight="1">
+      <c r="B233" s="36"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="36"/>
+      <c r="E233" s="36"/>
+      <c r="F233" s="36"/>
+      <c r="G233" s="37"/>
+    </row>
+    <row r="234" spans="1:7" ht="23.1" customHeight="1">
       <c r="A234" s="7"/>
       <c r="B234" s="3" t="s">
         <v>7</v>
@@ -6766,7 +6766,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" ht="19" customHeight="1">
+    <row r="235" spans="1:7" ht="18.95" customHeight="1">
       <c r="A235" s="32"/>
       <c r="B235" s="29" t="s">
         <v>17</v>
@@ -6781,7 +6781,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" ht="26">
+    <row r="236" spans="1:7" ht="24">
       <c r="A236" s="33"/>
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
@@ -6792,7 +6792,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" ht="26">
+    <row r="237" spans="1:7" ht="24">
       <c r="A237" s="34"/>
       <c r="B237" s="31"/>
       <c r="C237" s="31"/>
@@ -6844,7 +6844,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" ht="26">
+    <row r="241" spans="1:7" ht="24">
       <c r="A241" s="7"/>
       <c r="B241" s="3" t="s">
         <v>9</v>
@@ -6930,7 +6930,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="26">
+    <row r="247" spans="1:7" ht="24">
       <c r="A247" s="7"/>
       <c r="B247" s="3" t="s">
         <v>17</v>
@@ -6956,7 +6956,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" ht="26">
+    <row r="249" spans="1:7" ht="24">
       <c r="A249" s="7"/>
       <c r="B249" s="3" t="s">
         <v>9</v>
@@ -7008,7 +7008,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="1:7" ht="29" customHeight="1">
+    <row r="253" spans="1:7" ht="29.1" customHeight="1">
       <c r="A253" s="7"/>
       <c r="B253" s="3" t="s">
         <v>423</v>
@@ -7021,7 +7021,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:7" ht="29" customHeight="1">
+    <row r="254" spans="1:7" ht="29.1" customHeight="1">
       <c r="A254" s="7"/>
       <c r="B254" s="3" t="s">
         <v>418</v>
@@ -7034,7 +7034,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:7" ht="47" customHeight="1">
+    <row r="255" spans="1:7" ht="47.1" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="29" t="s">
         <v>418</v>
@@ -7051,7 +7051,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="47" customHeight="1">
+    <row r="256" spans="1:7" ht="47.1" customHeight="1">
       <c r="A256" s="34"/>
       <c r="B256" s="31"/>
       <c r="C256" s="3" t="s">
@@ -7066,7 +7066,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="47" customHeight="1">
+    <row r="257" spans="1:7" ht="47.1" customHeight="1">
       <c r="A257" s="32"/>
       <c r="B257" s="29" t="s">
         <v>418</v>
@@ -7083,7 +7083,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="52">
+    <row r="258" spans="1:7" ht="36">
       <c r="A258" s="34"/>
       <c r="B258" s="31"/>
       <c r="C258" s="3" t="s">
@@ -7098,7 +7098,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" ht="77" customHeight="1">
+    <row r="259" spans="1:7" ht="77.099999999999994" customHeight="1">
       <c r="A259" s="32"/>
       <c r="B259" s="29" t="s">
         <v>418</v>
@@ -7115,7 +7115,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="41" customHeight="1">
+    <row r="260" spans="1:7" ht="41.1" customHeight="1">
       <c r="A260" s="33"/>
       <c r="B260" s="30"/>
       <c r="C260" s="3"/>
@@ -7169,7 +7169,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" ht="26">
+    <row r="264" spans="1:7" ht="24">
       <c r="A264" s="32"/>
       <c r="B264" s="29" t="s">
         <v>418</v>
@@ -7197,7 +7197,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" ht="26">
+    <row r="266" spans="1:7" ht="24">
       <c r="A266" s="34"/>
       <c r="B266" s="31"/>
       <c r="C266" s="3"/>
@@ -7210,7 +7210,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" ht="26">
+    <row r="267" spans="1:7" ht="24">
       <c r="A267" s="7"/>
       <c r="B267" s="3" t="s">
         <v>445</v>
@@ -7258,36 +7258,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="A233:G233"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B184:B188"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A205:G205"/>
-    <mergeCell ref="A171:G171"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A65:G65"/>
@@ -7304,18 +7282,40 @@
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A205:G205"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A233:G233"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A144:A145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -2940,6 +2940,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2956,15 +2965,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="171">
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="150" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3485,15 +3485,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3806,7 +3806,7 @@
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3"/>
@@ -3819,7 +3819,7 @@
     <row r="23" spans="1:7" ht="44.25" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="3" t="s">
         <v>287</v>
       </c>
@@ -3832,7 +3832,7 @@
     <row r="24" spans="1:7" ht="38.25" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="3" t="s">
         <v>282</v>
       </c>
@@ -3845,7 +3845,7 @@
     <row r="25" spans="1:7" ht="40.5" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="3" t="s">
         <v>285</v>
       </c>
@@ -3957,15 +3957,15 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="60.95" customHeight="1">
       <c r="A34" s="3"/>
@@ -4421,15 +4421,15 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="45.95" customHeight="1">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="1:7" ht="48.95" customHeight="1">
       <c r="A66" s="4"/>
@@ -4656,15 +4656,15 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3"/>
@@ -5441,15 +5441,15 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="37"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="40"/>
     </row>
     <row r="138" spans="1:7" ht="44.1" customHeight="1">
       <c r="A138" s="16"/>
@@ -5909,15 +5909,15 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="37"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="40"/>
     </row>
     <row r="172" spans="1:7" ht="15.95" customHeight="1">
       <c r="A172" s="17"/>
@@ -6367,15 +6367,15 @@
       <c r="G204" s="3"/>
     </row>
     <row r="205" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A205" s="35" t="s">
+      <c r="A205" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="37"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="40"/>
     </row>
     <row r="206" spans="1:7" ht="29.1" customHeight="1">
       <c r="A206" s="7"/>
@@ -6743,15 +6743,15 @@
       <c r="G232" s="3"/>
     </row>
     <row r="233" spans="1:7" ht="77.099999999999994" customHeight="1">
-      <c r="A233" s="35" t="s">
+      <c r="A233" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B233" s="36"/>
-      <c r="C233" s="36"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="36"/>
-      <c r="F233" s="36"/>
-      <c r="G233" s="37"/>
+      <c r="B233" s="39"/>
+      <c r="C233" s="39"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="39"/>
+      <c r="F233" s="39"/>
+      <c r="G233" s="40"/>
     </row>
     <row r="234" spans="1:7" ht="23.1" customHeight="1">
       <c r="A234" s="7"/>
@@ -7258,14 +7258,36 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A233:G233"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A205:G205"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A65:G65"/>
@@ -7282,40 +7304,21 @@
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B184:B188"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A205:G205"/>
-    <mergeCell ref="A171:G171"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="A233:G233"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;P</oddHeader>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/programer-牢房篇分镜.xlsx
+++ b/programer-牢房篇分镜.xlsx
@@ -2940,15 +2940,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2965,6 +2956,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="171">
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="150" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3485,15 +3485,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3806,7 +3806,7 @@
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3"/>
@@ -3819,7 +3819,7 @@
     <row r="23" spans="1:7" ht="44.25" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="3" t="s">
         <v>287</v>
       </c>
@@ -3832,7 +3832,7 @@
     <row r="24" spans="1:7" ht="38.25" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="3" t="s">
         <v>282</v>
       </c>
@@ -3845,7 +3845,7 @@
     <row r="25" spans="1:7" ht="40.5" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="43"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="3" t="s">
         <v>285</v>
       </c>
@@ -3957,15 +3957,15 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="60.95" customHeight="1">
       <c r="A34" s="3"/>
@@ -4421,15 +4421,15 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="45.95" customHeight="1">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
     </row>
     <row r="66" spans="1:7" ht="48.95" customHeight="1">
       <c r="A66" s="4"/>
@@ -4656,15 +4656,15 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="40"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37"/>
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3"/>
@@ -5441,15 +5441,15 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="40"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="37"/>
     </row>
     <row r="138" spans="1:7" ht="44.1" customHeight="1">
       <c r="A138" s="16"/>
@@ -5909,15 +5909,15 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A171" s="38" t="s">
+      <c r="A171" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="40"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="37"/>
     </row>
     <row r="172" spans="1:7" ht="15.95" customHeight="1">
       <c r="A172" s="17"/>
@@ -6367,15 +6367,15 @@
       <c r="G204" s="3"/>
     </row>
     <row r="205" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A205" s="38" t="s">
+      <c r="A205" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="40"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="37"/>
     </row>
     <row r="206" spans="1:7" ht="29.1" customHeight="1">
       <c r="A206" s="7"/>
@@ -6743,15 +6743,15 @@
       <c r="G232" s="3"/>
     </row>
     <row r="233" spans="1:7" ht="77.099999999999994" customHeight="1">
-      <c r="A233" s="38" t="s">
+      <c r="A233" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-      <c r="F233" s="39"/>
-      <c r="G233" s="40"/>
+      <c r="B233" s="36"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="36"/>
+      <c r="E233" s="36"/>
+      <c r="F233" s="36"/>
+      <c r="G233" s="37"/>
     </row>
     <row r="234" spans="1:7" ht="23.1" customHeight="1">
       <c r="A234" s="7"/>
@@ -7258,36 +7258,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="A233:G233"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B184:B188"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A205:G205"/>
-    <mergeCell ref="A171:G171"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A65:G65"/>
@@ -7304,14 +7282,36 @@
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A205:G205"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A233:G233"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A144:A145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
